--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7952127430519921</v>
+        <v>0.7952127430519965</v>
       </c>
       <c r="D2">
-        <v>0.8070594916535961</v>
+        <v>0.8070594916536005</v>
       </c>
       <c r="E2">
-        <v>0.822405158000329</v>
+        <v>0.8224051580003331</v>
       </c>
       <c r="F2">
-        <v>0.8010955559592643</v>
+        <v>0.8010955559592691</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8258909600539073</v>
+        <v>0.8258909600539115</v>
       </c>
       <c r="K2">
-        <v>0.8220728828140634</v>
+        <v>0.8220728828140677</v>
       </c>
       <c r="L2">
-        <v>0.837054154127209</v>
+        <v>0.837054154127213</v>
       </c>
       <c r="M2">
-        <v>0.8162556458292528</v>
+        <v>0.8162556458292574</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8417354962598047</v>
+        <v>0.8417354962598059</v>
       </c>
       <c r="D3">
-        <v>0.8519526882120471</v>
+        <v>0.8519526882120479</v>
       </c>
       <c r="E3">
-        <v>0.8636629309322151</v>
+        <v>0.8636629309322164</v>
       </c>
       <c r="F3">
-        <v>0.8480277414506131</v>
+        <v>0.8480277414506147</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8677182351114554</v>
+        <v>0.8677182351114566</v>
       </c>
       <c r="K3">
-        <v>0.8649106292058494</v>
+        <v>0.8649106292058505</v>
       </c>
       <c r="L3">
-        <v>0.8763991012567941</v>
+        <v>0.8763991012567955</v>
       </c>
       <c r="M3">
-        <v>0.8610618115396104</v>
+        <v>0.8610618115396119</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8654312899063148</v>
+        <v>0.865431289906315</v>
       </c>
       <c r="D4">
-        <v>0.8748670862327289</v>
+        <v>0.8748670862327292</v>
       </c>
       <c r="E4">
-        <v>0.8847462403588792</v>
+        <v>0.8847462403588793</v>
       </c>
       <c r="F4">
-        <v>0.8719757144543282</v>
+        <v>0.8719757144543281</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8890397633970616</v>
+        <v>0.8890397633970619</v>
       </c>
       <c r="K4">
-        <v>0.8867540024460675</v>
+        <v>0.8867540024460677</v>
       </c>
       <c r="L4">
-        <v>0.8964683135019087</v>
+        <v>0.8964683135019086</v>
       </c>
       <c r="M4">
-        <v>0.8839117886504331</v>
+        <v>0.8839117886504333</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8744351647523405</v>
+        <v>0.8744351647523446</v>
       </c>
       <c r="D5">
-        <v>0.8835816714073769</v>
+        <v>0.8835816714073809</v>
       </c>
       <c r="E5">
-        <v>0.8927670833827231</v>
+        <v>0.8927670833827267</v>
       </c>
       <c r="F5">
-        <v>0.8810831993181163</v>
+        <v>0.8810831993181203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8971421414257708</v>
+        <v>0.8971421414257746</v>
       </c>
       <c r="K5">
-        <v>0.8950563345263519</v>
+        <v>0.8950563345263558</v>
       </c>
       <c r="L5">
-        <v>0.9040960523588414</v>
+        <v>0.9040960523588448</v>
       </c>
       <c r="M5">
-        <v>0.8925981665468978</v>
+        <v>0.8925981665469016</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8759003714094955</v>
+        <v>0.8759003714094975</v>
       </c>
       <c r="D6">
-        <v>0.8850001790443008</v>
+        <v>0.8850001790443026</v>
       </c>
       <c r="E6">
-        <v>0.8940727662742312</v>
+        <v>0.8940727662742329</v>
       </c>
       <c r="F6">
-        <v>0.8825656766105775</v>
+        <v>0.8825656766105793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8984606259359804</v>
+        <v>0.8984606259359823</v>
       </c>
       <c r="K6">
-        <v>0.8964074544217199</v>
+        <v>0.8964074544217217</v>
       </c>
       <c r="L6">
-        <v>0.9053373401910247</v>
+        <v>0.9053373401910266</v>
       </c>
       <c r="M6">
-        <v>0.8940118842428504</v>
+        <v>0.8940118842428521</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8655549004721037</v>
+        <v>0.8655549004721049</v>
       </c>
       <c r="D7">
-        <v>0.874986697839259</v>
+        <v>0.8749866978392603</v>
       </c>
       <c r="E7">
-        <v>0.8848563221427852</v>
+        <v>0.8848563221427862</v>
       </c>
       <c r="F7">
-        <v>0.8721007182076453</v>
+        <v>0.8721007182076468</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8891509979444263</v>
+        <v>0.8891509979444275</v>
       </c>
       <c r="K7">
-        <v>0.8868679753853665</v>
+        <v>0.886867975385368</v>
       </c>
       <c r="L7">
-        <v>0.8965730284623656</v>
+        <v>0.8965730284623666</v>
       </c>
       <c r="M7">
-        <v>0.8840310271749335</v>
+        <v>0.884031027174935</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D8">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E8">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F8">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K8">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L8">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M8">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D9">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E9">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F9">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K9">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L9">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M9">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D10">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E10">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F10">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K10">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L10">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M10">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D11">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E11">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F11">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K11">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L11">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M11">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D12">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E12">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F12">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K12">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L12">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M12">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D13">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E13">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F13">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K13">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L13">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M13">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D14">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E14">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F14">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K14">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L14">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M14">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D15">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E15">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F15">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K15">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L15">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M15">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D16">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E16">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F16">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K16">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L16">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M16">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D17">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E17">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F17">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K17">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L17">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M17">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D18">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E18">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F18">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K18">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L18">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M18">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D19">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E19">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F19">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K19">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L19">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M19">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D20">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E20">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F20">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K20">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L20">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M20">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D21">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E21">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F21">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K21">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L21">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M21">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D22">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E22">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F22">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K22">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L22">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M22">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D23">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E23">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F23">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K23">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L23">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M23">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D24">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E24">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F24">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K24">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L24">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M24">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8128072019766486</v>
+        <v>0.8128072019766467</v>
       </c>
       <c r="D25">
-        <v>0.82402159164695</v>
+        <v>0.8240215916469481</v>
       </c>
       <c r="E25">
-        <v>0.8379842661354613</v>
+        <v>0.8379842661354596</v>
       </c>
       <c r="F25">
-        <v>0.8188314755727222</v>
+        <v>0.8188314755727201</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8417016405389965</v>
+        <v>0.8417016405389947</v>
       </c>
       <c r="K25">
-        <v>0.8382639354735203</v>
+        <v>0.8382639354735184</v>
       </c>
       <c r="L25">
-        <v>0.851921338762236</v>
+        <v>0.8519213387622344</v>
       </c>
       <c r="M25">
-        <v>0.8331908362978249</v>
+        <v>0.8331908362978229</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -418,31 +418,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7952127430519965</v>
+        <v>0.7952127430519921</v>
       </c>
       <c r="D2">
-        <v>0.8070594916536005</v>
+        <v>0.8070594916535961</v>
       </c>
       <c r="E2">
-        <v>0.8224051580003331</v>
+        <v>0.822405158000329</v>
       </c>
       <c r="F2">
-        <v>0.8010955559592691</v>
+        <v>0.8010955559592643</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8258909600539115</v>
+        <v>0.8258909600539073</v>
       </c>
       <c r="K2">
-        <v>0.8220728828140677</v>
+        <v>0.8220728828140634</v>
       </c>
       <c r="L2">
-        <v>0.837054154127213</v>
+        <v>0.837054154127209</v>
       </c>
       <c r="M2">
-        <v>0.8162556458292574</v>
+        <v>0.8162556458292528</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8417354962598059</v>
+        <v>0.8417354962598047</v>
       </c>
       <c r="D3">
-        <v>0.8519526882120479</v>
+        <v>0.8519526882120471</v>
       </c>
       <c r="E3">
-        <v>0.8636629309322164</v>
+        <v>0.8636629309322151</v>
       </c>
       <c r="F3">
-        <v>0.8480277414506147</v>
+        <v>0.8480277414506131</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8677182351114566</v>
+        <v>0.8677182351114554</v>
       </c>
       <c r="K3">
-        <v>0.8649106292058505</v>
+        <v>0.8649106292058494</v>
       </c>
       <c r="L3">
-        <v>0.8763991012567955</v>
+        <v>0.8763991012567941</v>
       </c>
       <c r="M3">
-        <v>0.8610618115396119</v>
+        <v>0.8610618115396104</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +482,31 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.865431289906315</v>
+        <v>0.8654312899063148</v>
       </c>
       <c r="D4">
-        <v>0.8748670862327292</v>
+        <v>0.8748670862327289</v>
       </c>
       <c r="E4">
-        <v>0.8847462403588793</v>
+        <v>0.8847462403588792</v>
       </c>
       <c r="F4">
-        <v>0.8719757144543281</v>
+        <v>0.8719757144543282</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8890397633970619</v>
+        <v>0.8890397633970616</v>
       </c>
       <c r="K4">
-        <v>0.8867540024460677</v>
+        <v>0.8867540024460675</v>
       </c>
       <c r="L4">
-        <v>0.8964683135019086</v>
+        <v>0.8964683135019087</v>
       </c>
       <c r="M4">
-        <v>0.8839117886504333</v>
+        <v>0.8839117886504331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +514,31 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8744351647523446</v>
+        <v>0.8744351647523405</v>
       </c>
       <c r="D5">
-        <v>0.8835816714073809</v>
+        <v>0.8835816714073769</v>
       </c>
       <c r="E5">
-        <v>0.8927670833827267</v>
+        <v>0.8927670833827231</v>
       </c>
       <c r="F5">
-        <v>0.8810831993181203</v>
+        <v>0.8810831993181163</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8971421414257746</v>
+        <v>0.8971421414257708</v>
       </c>
       <c r="K5">
-        <v>0.8950563345263558</v>
+        <v>0.8950563345263519</v>
       </c>
       <c r="L5">
-        <v>0.9040960523588448</v>
+        <v>0.9040960523588414</v>
       </c>
       <c r="M5">
-        <v>0.8925981665469016</v>
+        <v>0.8925981665468978</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +546,31 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8759003714094975</v>
+        <v>0.8759003714094955</v>
       </c>
       <c r="D6">
-        <v>0.8850001790443026</v>
+        <v>0.8850001790443008</v>
       </c>
       <c r="E6">
-        <v>0.8940727662742329</v>
+        <v>0.8940727662742312</v>
       </c>
       <c r="F6">
-        <v>0.8825656766105793</v>
+        <v>0.8825656766105775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8984606259359823</v>
+        <v>0.8984606259359804</v>
       </c>
       <c r="K6">
-        <v>0.8964074544217217</v>
+        <v>0.8964074544217199</v>
       </c>
       <c r="L6">
-        <v>0.9053373401910266</v>
+        <v>0.9053373401910247</v>
       </c>
       <c r="M6">
-        <v>0.8940118842428521</v>
+        <v>0.8940118842428504</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +578,31 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8655549004721049</v>
+        <v>0.8655549004721037</v>
       </c>
       <c r="D7">
-        <v>0.8749866978392603</v>
+        <v>0.874986697839259</v>
       </c>
       <c r="E7">
-        <v>0.8848563221427862</v>
+        <v>0.8848563221427852</v>
       </c>
       <c r="F7">
-        <v>0.8721007182076468</v>
+        <v>0.8721007182076453</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8891509979444275</v>
+        <v>0.8891509979444263</v>
       </c>
       <c r="K7">
-        <v>0.886867975385368</v>
+        <v>0.8868679753853665</v>
       </c>
       <c r="L7">
-        <v>0.8965730284623666</v>
+        <v>0.8965730284623656</v>
       </c>
       <c r="M7">
-        <v>0.884031027174935</v>
+        <v>0.8840310271749335</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +610,31 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D8">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E8">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F8">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K8">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L8">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M8">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +642,31 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D9">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E9">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F9">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K9">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L9">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M9">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +674,31 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D10">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E10">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F10">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K10">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L10">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M10">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +706,31 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D11">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E11">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F11">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K11">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L11">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M11">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +738,31 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D12">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E12">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F12">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K12">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L12">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M12">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +770,31 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D13">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E13">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F13">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K13">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L13">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M13">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +802,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D14">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E14">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F14">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K14">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L14">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M14">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +834,31 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D15">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E15">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F15">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K15">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L15">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M15">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,31 +866,31 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D16">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E16">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F16">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K16">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L16">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M16">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -898,31 +898,31 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D17">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E17">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F17">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K17">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L17">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M17">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -930,31 +930,31 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D18">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E18">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F18">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K18">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L18">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M18">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -962,31 +962,31 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D19">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E19">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F19">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K19">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L19">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M19">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -994,31 +994,31 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D20">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E20">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F20">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K20">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L20">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M20">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1026,31 +1026,31 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D21">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E21">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F21">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K21">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L21">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M21">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1058,31 +1058,31 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D22">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E22">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F22">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K22">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L22">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M22">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1090,31 +1090,31 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D23">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E23">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F23">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K23">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L23">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M23">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1122,31 +1122,31 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D24">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E24">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F24">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K24">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L24">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M24">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1154,31 +1154,31 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8128072019766467</v>
+        <v>0.8128072019766486</v>
       </c>
       <c r="D25">
-        <v>0.8240215916469481</v>
+        <v>0.82402159164695</v>
       </c>
       <c r="E25">
-        <v>0.8379842661354596</v>
+        <v>0.8379842661354613</v>
       </c>
       <c r="F25">
-        <v>0.8188314755727201</v>
+        <v>0.8188314755727222</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8417016405389947</v>
+        <v>0.8417016405389965</v>
       </c>
       <c r="K25">
-        <v>0.8382639354735184</v>
+        <v>0.8382639354735203</v>
       </c>
       <c r="L25">
-        <v>0.8519213387622344</v>
+        <v>0.851921338762236</v>
       </c>
       <c r="M25">
-        <v>0.8331908362978229</v>
+        <v>0.8331908362978249</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -418,31 +418,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.7952127430519921</v>
+        <v>0.7960149006296754</v>
       </c>
       <c r="D2">
-        <v>0.8070594916535961</v>
+        <v>0.8078446853797469</v>
       </c>
       <c r="E2">
-        <v>0.822405158000329</v>
+        <v>0.8231242660119488</v>
       </c>
       <c r="F2">
-        <v>0.8010955559592643</v>
+        <v>0.8018951058808372</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.8258909600539073</v>
+        <v>0.8266471789415051</v>
       </c>
       <c r="K2">
-        <v>0.8220728828140634</v>
+        <v>0.8228389795493506</v>
       </c>
       <c r="L2">
-        <v>0.837054154127209</v>
+        <v>0.8377566318002062</v>
       </c>
       <c r="M2">
-        <v>0.8162556458292528</v>
+        <v>0.817035358025555</v>
+      </c>
+      <c r="N2">
+        <v>0.8734029225622857</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -450,31 +453,34 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.8417354962598047</v>
+        <v>0.8422483677327739</v>
       </c>
       <c r="D3">
-        <v>0.8519526882120471</v>
+        <v>0.8524577968365009</v>
       </c>
       <c r="E3">
-        <v>0.8636629309322151</v>
+        <v>0.8641261582969492</v>
       </c>
       <c r="F3">
-        <v>0.8480277414506131</v>
+        <v>0.8485383194114974</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.8677182351114554</v>
+        <v>0.8682085055177906</v>
       </c>
       <c r="K3">
-        <v>0.8649106292058494</v>
+        <v>0.8654060073147052</v>
       </c>
       <c r="L3">
-        <v>0.8763991012567941</v>
+        <v>0.8768537171303399</v>
       </c>
       <c r="M3">
-        <v>0.8610618115396104</v>
+        <v>0.8615624339619622</v>
+      </c>
+      <c r="N3">
+        <v>0.9037214838396538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -482,31 +488,34 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8654312899063148</v>
+        <v>0.8658408998667597</v>
       </c>
       <c r="D4">
-        <v>0.8748670862327289</v>
+        <v>0.8752715598908312</v>
       </c>
       <c r="E4">
-        <v>0.8847462403588792</v>
+        <v>0.8851173746284887</v>
       </c>
       <c r="F4">
-        <v>0.8719757144543282</v>
+        <v>0.8723832252801608</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.8890397633970616</v>
+        <v>0.8894337635425434</v>
       </c>
       <c r="K4">
-        <v>0.8867540024460675</v>
+        <v>0.8871516328120055</v>
       </c>
       <c r="L4">
-        <v>0.8964683135019087</v>
+        <v>0.8968333472779142</v>
       </c>
       <c r="M4">
-        <v>0.8839117886504331</v>
+        <v>0.8843123456567479</v>
+      </c>
+      <c r="N4">
+        <v>0.9192316616351365</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -514,31 +523,34 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.8744351647523405</v>
+        <v>0.8748105186263835</v>
       </c>
       <c r="D5">
-        <v>0.8835816714073769</v>
+        <v>0.8839526618168608</v>
       </c>
       <c r="E5">
-        <v>0.8927670833827231</v>
+        <v>0.8931075614382248</v>
       </c>
       <c r="F5">
-        <v>0.8810831993181163</v>
+        <v>0.8814565369593005</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.8971421414257708</v>
+        <v>0.897503995461292</v>
       </c>
       <c r="K5">
-        <v>0.8950563345263519</v>
+        <v>0.8954213652218708</v>
       </c>
       <c r="L5">
-        <v>0.9040960523588414</v>
+        <v>0.9044312035953957</v>
       </c>
       <c r="M5">
-        <v>0.8925981665468978</v>
+        <v>0.8929654630513144</v>
+      </c>
+      <c r="N5">
+        <v>0.9251304510413512</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -546,31 +558,34 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.8759003714094955</v>
+        <v>0.876270369840538</v>
       </c>
       <c r="D6">
-        <v>0.8850001790443008</v>
+        <v>0.8853659300200604</v>
       </c>
       <c r="E6">
-        <v>0.8940727662742312</v>
+        <v>0.8944084467417049</v>
       </c>
       <c r="F6">
-        <v>0.8825656766105775</v>
+        <v>0.8829336728149407</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.8984606259359804</v>
+        <v>0.8988174439710737</v>
       </c>
       <c r="K6">
-        <v>0.8964074544217199</v>
+        <v>0.8967673800598023</v>
       </c>
       <c r="L6">
-        <v>0.9053373401910247</v>
+        <v>0.9056678117464834</v>
       </c>
       <c r="M6">
-        <v>0.8940118842428504</v>
+        <v>0.8943739778346211</v>
+      </c>
+      <c r="N6">
+        <v>0.9260904946790712</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -578,31 +593,34 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.8655549004721037</v>
+        <v>0.865964023689401</v>
       </c>
       <c r="D7">
-        <v>0.874986697839259</v>
+        <v>0.8753906961002034</v>
       </c>
       <c r="E7">
-        <v>0.8848563221427852</v>
+        <v>0.8852270211984566</v>
       </c>
       <c r="F7">
-        <v>0.8721007182076453</v>
+        <v>0.8725077433924469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.8891509979444263</v>
+        <v>0.8895445421127477</v>
       </c>
       <c r="K7">
-        <v>0.8868679753853665</v>
+        <v>0.887265143190713</v>
       </c>
       <c r="L7">
-        <v>0.8965730284623656</v>
+        <v>0.8969376382450327</v>
       </c>
       <c r="M7">
-        <v>0.8840310271749335</v>
+        <v>0.8844311118215208</v>
+      </c>
+      <c r="N7">
+        <v>0.9193126313193773</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -610,31 +628,34 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D8">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E8">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F8">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K8">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L8">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M8">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N8">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -642,31 +663,34 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D9">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E9">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F9">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K9">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L9">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M9">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N9">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -674,31 +698,34 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D10">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E10">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F10">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K10">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L10">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M10">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N10">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -706,31 +733,34 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D11">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E11">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F11">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K11">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L11">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M11">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N11">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -738,31 +768,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D12">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E12">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F12">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K12">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L12">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M12">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N12">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -770,31 +803,34 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D13">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E13">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F13">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K13">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L13">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M13">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N13">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -802,31 +838,34 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D14">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E14">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F14">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K14">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L14">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M14">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N14">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -834,31 +873,34 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D15">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E15">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F15">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K15">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L15">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M15">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N15">
+        <v>0.8848401106576559</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -866,319 +908,349 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D16">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E16">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F16">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K16">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L16">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M16">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N16">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D17">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E17">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F17">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K17">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L17">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M17">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N17">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D18">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E18">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F18">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K18">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L18">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M18">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N18">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D19">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E19">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F19">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K19">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L19">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M19">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N19">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D20">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E20">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F20">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K20">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L20">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M20">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N20">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D21">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E21">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F21">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K21">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L21">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M21">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N21">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D22">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E22">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F22">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K22">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L22">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M22">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N22">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D23">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E23">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F23">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K23">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L23">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M23">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N23">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D24">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E24">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F24">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K24">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L24">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M24">
-        <v>0.8331908362978249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N24">
+        <v>0.8848401106576559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.8128072019766486</v>
+        <v>0.8134819845587953</v>
       </c>
       <c r="D25">
-        <v>0.82402159164695</v>
+        <v>0.8246837430409921</v>
       </c>
       <c r="E25">
-        <v>0.8379842661354613</v>
+        <v>0.8385910433141771</v>
       </c>
       <c r="F25">
-        <v>0.8188314755727222</v>
+        <v>0.8195037635026968</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.8417016405389965</v>
+        <v>0.8423413180270801</v>
       </c>
       <c r="K25">
-        <v>0.8382639354735203</v>
+        <v>0.8389112990102869</v>
       </c>
       <c r="L25">
-        <v>0.851921338762236</v>
+        <v>0.8525151551069108</v>
       </c>
       <c r="M25">
-        <v>0.8331908362978249</v>
+        <v>0.8338478552532325</v>
+      </c>
+      <c r="N25">
+        <v>0.8848401106576559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1.05663530393823</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1.070816066873439</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.06377656795187</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.076189716333684</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.073387590723912</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.077244637108938</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.081369703651059</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.07441353866195</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.086680646646418</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.07877444805532</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>1.066047779618964</v>
+      </c>
+      <c r="D3">
+        <v>1.079633330263479</v>
+      </c>
+      <c r="E3">
+        <v>1.072165140052355</v>
+      </c>
+      <c r="F3">
+        <v>1.08497150016169</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.076806070831057</v>
+      </c>
+      <c r="J3">
+        <v>1.084886656883736</v>
+      </c>
+      <c r="K3">
+        <v>1.089339432952642</v>
+      </c>
+      <c r="L3">
+        <v>1.08195098083424</v>
+      </c>
+      <c r="M3">
+        <v>1.094621429204594</v>
+      </c>
+      <c r="N3">
+        <v>1.08642732037475</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.071923440279576</v>
+      </c>
+      <c r="D4">
+        <v>1.085141546081475</v>
+      </c>
+      <c r="E4">
+        <v>1.077403050164277</v>
+      </c>
+      <c r="F4">
+        <v>1.090457784208779</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.078922964554171</v>
+      </c>
+      <c r="J4">
+        <v>1.089650571830124</v>
+      </c>
+      <c r="K4">
+        <v>1.094310519820584</v>
+      </c>
+      <c r="L4">
+        <v>1.086649111213688</v>
+      </c>
+      <c r="M4">
+        <v>1.099574568975875</v>
+      </c>
+      <c r="N4">
+        <v>1.091198000626791</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.074345609675438</v>
+      </c>
+      <c r="D5">
+        <v>1.087413148816119</v>
+      </c>
+      <c r="E5">
+        <v>1.079562573655509</v>
+      </c>
+      <c r="F5">
+        <v>1.092720390050327</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.079791476938517</v>
+      </c>
+      <c r="J5">
+        <v>1.091612808279982</v>
+      </c>
+      <c r="K5">
+        <v>1.096358777469392</v>
+      </c>
+      <c r="L5">
+        <v>1.088584106364106</v>
+      </c>
+      <c r="M5">
+        <v>1.101615452074031</v>
+      </c>
+      <c r="N5">
+        <v>1.093163023677479</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.074749584617145</v>
+      </c>
+      <c r="D6">
+        <v>1.087792063171709</v>
+      </c>
+      <c r="E6">
+        <v>1.079922756962996</v>
+      </c>
+      <c r="F6">
+        <v>1.093097806277507</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.0799360836145</v>
+      </c>
+      <c r="J6">
+        <v>1.091939977133222</v>
+      </c>
+      <c r="K6">
+        <v>1.096700329243417</v>
+      </c>
+      <c r="L6">
+        <v>1.088906724610299</v>
+      </c>
+      <c r="M6">
+        <v>1.101955775161687</v>
+      </c>
+      <c r="N6">
+        <v>1.093490657148017</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.071955989544404</v>
+      </c>
+      <c r="D7">
+        <v>1.085172068522787</v>
+      </c>
+      <c r="E7">
+        <v>1.077432069051028</v>
+      </c>
+      <c r="F7">
+        <v>1.090488185583596</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.078934652200126</v>
+      </c>
+      <c r="J7">
+        <v>1.089676947015241</v>
+      </c>
+      <c r="K7">
+        <v>1.094338048527674</v>
+      </c>
+      <c r="L7">
+        <v>1.086675120815445</v>
+      </c>
+      <c r="M7">
+        <v>1.099601998495361</v>
+      </c>
+      <c r="N7">
+        <v>1.091224413267695</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>1.059862990133199</v>
+      </c>
+      <c r="D8">
+        <v>1.073838723193769</v>
+      </c>
+      <c r="E8">
+        <v>1.066652790028201</v>
+      </c>
+      <c r="F8">
+        <v>1.079200155383439</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.074563420969031</v>
+      </c>
+      <c r="J8">
+        <v>1.079866557778569</v>
+      </c>
+      <c r="K8">
+        <v>1.084103445024394</v>
+      </c>
+      <c r="L8">
+        <v>1.0769997032731</v>
+      </c>
+      <c r="M8">
+        <v>1.089404432120535</v>
+      </c>
+      <c r="N8">
+        <v>1.08140009215304</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.03672959223697</v>
+      </c>
+      <c r="D9">
+        <v>1.052196611173731</v>
+      </c>
+      <c r="E9">
+        <v>1.04604847547688</v>
+      </c>
+      <c r="F9">
+        <v>1.057646928696946</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.06606394094581</v>
+      </c>
+      <c r="J9">
+        <v>1.061048823452243</v>
+      </c>
+      <c r="K9">
+        <v>1.06449602211468</v>
+      </c>
+      <c r="L9">
+        <v>1.058436153757793</v>
+      </c>
+      <c r="M9">
+        <v>1.069869174921084</v>
+      </c>
+      <c r="N9">
+        <v>1.062555634485546</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>1.019787783393694</v>
+      </c>
+      <c r="D10">
+        <v>1.036380187512189</v>
+      </c>
+      <c r="E10">
+        <v>1.030977123335304</v>
+      </c>
+      <c r="F10">
+        <v>1.041897824229987</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.059749602166465</v>
+      </c>
+      <c r="J10">
+        <v>1.04723772541508</v>
+      </c>
+      <c r="K10">
+        <v>1.050122250360721</v>
+      </c>
+      <c r="L10">
+        <v>1.044808728652742</v>
+      </c>
+      <c r="M10">
+        <v>1.055549676881036</v>
+      </c>
+      <c r="N10">
+        <v>1.048724923105015</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>1.01200962164943</v>
+      </c>
+      <c r="D11">
+        <v>1.029128557287674</v>
+      </c>
+      <c r="E11">
+        <v>1.02406408028803</v>
+      </c>
+      <c r="F11">
+        <v>1.034677831177214</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.056830506212116</v>
+      </c>
+      <c r="J11">
+        <v>1.040891182422893</v>
+      </c>
+      <c r="K11">
+        <v>1.043521292570887</v>
+      </c>
+      <c r="L11">
+        <v>1.038546017515533</v>
+      </c>
+      <c r="M11">
+        <v>1.048974122442697</v>
+      </c>
+      <c r="N11">
+        <v>1.042369367293821</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>1.009045483169386</v>
+      </c>
+      <c r="D12">
+        <v>1.026366750673537</v>
+      </c>
+      <c r="E12">
+        <v>1.021430790630112</v>
+      </c>
+      <c r="F12">
+        <v>1.031928211598855</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.055715185966408</v>
+      </c>
+      <c r="J12">
+        <v>1.038471894892028</v>
+      </c>
+      <c r="K12">
+        <v>1.041005658541801</v>
+      </c>
+      <c r="L12">
+        <v>1.036158614240201</v>
+      </c>
+      <c r="M12">
+        <v>1.046468257548383</v>
+      </c>
+      <c r="N12">
+        <v>1.039946644097166</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>1.009684848637761</v>
+      </c>
+      <c r="D13">
+        <v>1.026962393905601</v>
+      </c>
+      <c r="E13">
+        <v>1.021998735673851</v>
+      </c>
+      <c r="F13">
+        <v>1.032521219821982</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.055955889246228</v>
+      </c>
+      <c r="J13">
+        <v>1.038993765636324</v>
+      </c>
+      <c r="K13">
+        <v>1.041548283549363</v>
+      </c>
+      <c r="L13">
+        <v>1.036673610152914</v>
+      </c>
+      <c r="M13">
+        <v>1.047008771094514</v>
+      </c>
+      <c r="N13">
+        <v>1.040469255957778</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>1.01176618973461</v>
+      </c>
+      <c r="D14">
+        <v>1.02890170680483</v>
+      </c>
+      <c r="E14">
+        <v>1.023847794668024</v>
+      </c>
+      <c r="F14">
+        <v>1.034451978788094</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.056738967597943</v>
+      </c>
+      <c r="J14">
+        <v>1.04069251036778</v>
+      </c>
+      <c r="K14">
+        <v>1.043314695592678</v>
+      </c>
+      <c r="L14">
+        <v>1.038349965169505</v>
+      </c>
+      <c r="M14">
+        <v>1.04876832587716</v>
+      </c>
+      <c r="N14">
+        <v>1.042170413101602</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>1.013038354324975</v>
+      </c>
+      <c r="D15">
+        <v>1.030087286839875</v>
+      </c>
+      <c r="E15">
+        <v>1.024978142449769</v>
+      </c>
+      <c r="F15">
+        <v>1.035632348254339</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.057217227786701</v>
+      </c>
+      <c r="J15">
+        <v>1.041730733730977</v>
+      </c>
+      <c r="K15">
+        <v>1.044394358980467</v>
+      </c>
+      <c r="L15">
+        <v>1.039374495579418</v>
+      </c>
+      <c r="M15">
+        <v>1.049843810019693</v>
+      </c>
+      <c r="N15">
+        <v>1.043210110861061</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>1.020293982645508</v>
+      </c>
+      <c r="D16">
+        <v>1.036852338852392</v>
+      </c>
+      <c r="E16">
+        <v>1.031427168695541</v>
+      </c>
+      <c r="F16">
+        <v>1.042367933317287</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.05993917187519</v>
+      </c>
+      <c r="J16">
+        <v>1.047650649240339</v>
+      </c>
+      <c r="K16">
+        <v>1.050551813415427</v>
+      </c>
+      <c r="L16">
+        <v>1.045216187460424</v>
+      </c>
+      <c r="M16">
+        <v>1.055977597905812</v>
+      </c>
+      <c r="N16">
+        <v>1.049138433329469</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>1.024721284438614</v>
+      </c>
+      <c r="D17">
+        <v>1.040982975471874</v>
+      </c>
+      <c r="E17">
+        <v>1.035364073722951</v>
+      </c>
+      <c r="F17">
+        <v>1.046480791891846</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.061594940671059</v>
+      </c>
+      <c r="J17">
+        <v>1.051261522610333</v>
+      </c>
+      <c r="K17">
+        <v>1.054308656376112</v>
+      </c>
+      <c r="L17">
+        <v>1.048779208562092</v>
+      </c>
+      <c r="M17">
+        <v>1.059720135306723</v>
+      </c>
+      <c r="N17">
+        <v>1.052754434553822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>1.027261635819668</v>
+      </c>
+      <c r="D18">
+        <v>1.043354006278788</v>
+      </c>
+      <c r="E18">
+        <v>1.037623617741997</v>
+      </c>
+      <c r="F18">
+        <v>1.048841688287211</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.062543125778847</v>
+      </c>
+      <c r="J18">
+        <v>1.053332870498343</v>
+      </c>
+      <c r="K18">
+        <v>1.056464123662893</v>
+      </c>
+      <c r="L18">
+        <v>1.050823052276883</v>
+      </c>
+      <c r="M18">
+        <v>1.061867438297484</v>
+      </c>
+      <c r="N18">
+        <v>1.05482872399342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>1.02812093767796</v>
+      </c>
+      <c r="D19">
+        <v>1.044156181558852</v>
+      </c>
+      <c r="E19">
+        <v>1.038388025998135</v>
+      </c>
+      <c r="F19">
+        <v>1.049640446215629</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.062863537210202</v>
+      </c>
+      <c r="J19">
+        <v>1.054033430803221</v>
+      </c>
+      <c r="K19">
+        <v>1.057193199378079</v>
+      </c>
+      <c r="L19">
+        <v>1.051514300746814</v>
+      </c>
+      <c r="M19">
+        <v>1.062593759427717</v>
+      </c>
+      <c r="N19">
+        <v>1.055530279174285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>1.024250679866161</v>
+      </c>
+      <c r="D20">
+        <v>1.04054380988376</v>
+      </c>
+      <c r="E20">
+        <v>1.03494553481236</v>
+      </c>
+      <c r="F20">
+        <v>1.046043508983107</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.061419134126512</v>
+      </c>
+      <c r="J20">
+        <v>1.050877756746216</v>
+      </c>
+      <c r="K20">
+        <v>1.053909336598383</v>
+      </c>
+      <c r="L20">
+        <v>1.048400534016167</v>
+      </c>
+      <c r="M20">
+        <v>1.059322331461408</v>
+      </c>
+      <c r="N20">
+        <v>1.052370123698158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>1.011155433118975</v>
+      </c>
+      <c r="D21">
+        <v>1.028332579719153</v>
+      </c>
+      <c r="E21">
+        <v>1.02330516601129</v>
+      </c>
+      <c r="F21">
+        <v>1.033885358035602</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.056509256455805</v>
+      </c>
+      <c r="J21">
+        <v>1.04019404267478</v>
+      </c>
+      <c r="K21">
+        <v>1.04279635453888</v>
+      </c>
+      <c r="L21">
+        <v>1.037858069212492</v>
+      </c>
+      <c r="M21">
+        <v>1.048251994486908</v>
+      </c>
+      <c r="N21">
+        <v>1.041671237527302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>1.002482625067102</v>
+      </c>
+      <c r="D22">
+        <v>1.020255229952528</v>
+      </c>
+      <c r="E22">
+        <v>1.01560288128526</v>
+      </c>
+      <c r="F22">
+        <v>1.025843942443836</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.053240565785183</v>
+      </c>
+      <c r="J22">
+        <v>1.033114238498658</v>
+      </c>
+      <c r="K22">
+        <v>1.035435830000119</v>
+      </c>
+      <c r="L22">
+        <v>1.030871452024124</v>
+      </c>
+      <c r="M22">
+        <v>1.040920241797461</v>
+      </c>
+      <c r="N22">
+        <v>1.034581379217186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>1.007125177034733</v>
+      </c>
+      <c r="D23">
+        <v>1.024578025621167</v>
+      </c>
+      <c r="E23">
+        <v>1.019725181541978</v>
+      </c>
+      <c r="F23">
+        <v>1.030147421654681</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.05499183019449</v>
+      </c>
+      <c r="J23">
+        <v>1.036904386314115</v>
+      </c>
+      <c r="K23">
+        <v>1.039375906079903</v>
+      </c>
+      <c r="L23">
+        <v>1.034611745791349</v>
+      </c>
+      <c r="M23">
+        <v>1.044844861058997</v>
+      </c>
+      <c r="N23">
+        <v>1.038376909477277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>1.024463455040738</v>
+      </c>
+      <c r="D24">
+        <v>1.040742367703962</v>
+      </c>
+      <c r="E24">
+        <v>1.035134767673094</v>
+      </c>
+      <c r="F24">
+        <v>1.046241215379117</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.061498627677347</v>
+      </c>
+      <c r="J24">
+        <v>1.051051271101317</v>
+      </c>
+      <c r="K24">
+        <v>1.05408988223981</v>
+      </c>
+      <c r="L24">
+        <v>1.048571746572383</v>
+      </c>
+      <c r="M24">
+        <v>1.05950219156573</v>
+      </c>
+      <c r="N24">
+        <v>1.052543884463547</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>1.042953773377689</v>
+      </c>
+      <c r="D25">
+        <v>1.058014510490238</v>
+      </c>
+      <c r="E25">
+        <v>1.051589685559204</v>
+      </c>
+      <c r="F25">
+        <v>1.063440594825964</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.068366227585526</v>
+      </c>
+      <c r="J25">
+        <v>1.066117267115234</v>
+      </c>
+      <c r="K25">
+        <v>1.06977435528007</v>
+      </c>
+      <c r="L25">
+        <v>1.063436648797845</v>
+      </c>
+      <c r="M25">
+        <v>1.075127893013628</v>
+      </c>
+      <c r="N25">
+        <v>1.067631275919897</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.05663530393823</v>
+        <v>1.102882404376526</v>
       </c>
       <c r="D2">
-        <v>1.070816066873439</v>
+        <v>1.111984274116987</v>
       </c>
       <c r="E2">
-        <v>1.06377656795187</v>
+        <v>1.104158919159907</v>
       </c>
       <c r="F2">
-        <v>1.076189716333684</v>
+        <v>1.117494588057065</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073387590723912</v>
+        <v>1.063851322556931</v>
       </c>
       <c r="J2">
-        <v>1.077244637108938</v>
+        <v>1.107653188708778</v>
       </c>
       <c r="K2">
-        <v>1.081369703651059</v>
+        <v>1.114577768308342</v>
       </c>
       <c r="L2">
-        <v>1.07441353866195</v>
+        <v>1.106771784569194</v>
       </c>
       <c r="M2">
-        <v>1.086680646646418</v>
+        <v>1.120074616826322</v>
       </c>
       <c r="N2">
-        <v>1.07877444805532</v>
+        <v>1.109226183286341</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.066047779618964</v>
+        <v>1.104680209325298</v>
       </c>
       <c r="D3">
-        <v>1.079633330263479</v>
+        <v>1.113706973285099</v>
       </c>
       <c r="E3">
-        <v>1.072165140052355</v>
+        <v>1.105784844255862</v>
       </c>
       <c r="F3">
-        <v>1.08497150016169</v>
+        <v>1.119211531459812</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076806070831057</v>
+        <v>1.064364894093118</v>
       </c>
       <c r="J3">
-        <v>1.084886656883736</v>
+        <v>1.109116791844593</v>
       </c>
       <c r="K3">
-        <v>1.089339432952642</v>
+        <v>1.116122400155308</v>
       </c>
       <c r="L3">
-        <v>1.08195098083424</v>
+        <v>1.108218446758596</v>
       </c>
       <c r="M3">
-        <v>1.094621429204594</v>
+        <v>1.121614491499204</v>
       </c>
       <c r="N3">
-        <v>1.08642732037475</v>
+        <v>1.110691864906486</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.071923440279576</v>
+        <v>1.105840661371052</v>
       </c>
       <c r="D4">
-        <v>1.085141546081475</v>
+        <v>1.114819074885089</v>
       </c>
       <c r="E4">
-        <v>1.077403050164277</v>
+        <v>1.106834081408451</v>
       </c>
       <c r="F4">
-        <v>1.090457784208779</v>
+        <v>1.120319892919239</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078922964554171</v>
+        <v>1.064694348096832</v>
       </c>
       <c r="J4">
-        <v>1.089650571830124</v>
+        <v>1.110060605276339</v>
       </c>
       <c r="K4">
-        <v>1.094310519820584</v>
+        <v>1.117118799421269</v>
       </c>
       <c r="L4">
-        <v>1.086649111213688</v>
+        <v>1.109151193053072</v>
       </c>
       <c r="M4">
-        <v>1.099574568975875</v>
+        <v>1.122607793486566</v>
       </c>
       <c r="N4">
-        <v>1.091198000626791</v>
+        <v>1.111637018661562</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.074345609675438</v>
+        <v>1.106327848991577</v>
       </c>
       <c r="D5">
-        <v>1.087413148816119</v>
+        <v>1.115285994063125</v>
       </c>
       <c r="E5">
-        <v>1.079562573655509</v>
+        <v>1.107274513299948</v>
       </c>
       <c r="F5">
-        <v>1.092720390050327</v>
+        <v>1.120785235911389</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079791476938517</v>
+        <v>1.064832170834366</v>
       </c>
       <c r="J5">
-        <v>1.091612808279982</v>
+        <v>1.110456622595924</v>
       </c>
       <c r="K5">
-        <v>1.096358777469392</v>
+        <v>1.117536961340993</v>
       </c>
       <c r="L5">
-        <v>1.088584106364106</v>
+        <v>1.109542532683325</v>
       </c>
       <c r="M5">
-        <v>1.101615452074031</v>
+        <v>1.123024648716195</v>
       </c>
       <c r="N5">
-        <v>1.093163023677479</v>
+        <v>1.112033598371165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.074749584617145</v>
+        <v>1.1064096113024</v>
       </c>
       <c r="D6">
-        <v>1.087792063171709</v>
+        <v>1.115364356582072</v>
       </c>
       <c r="E6">
-        <v>1.079922756962996</v>
+        <v>1.107348425011855</v>
       </c>
       <c r="F6">
-        <v>1.093097806277507</v>
+        <v>1.120863333555597</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0799360836145</v>
+        <v>1.064855272170074</v>
       </c>
       <c r="J6">
-        <v>1.091939977133222</v>
+        <v>1.110523071340546</v>
       </c>
       <c r="K6">
-        <v>1.096700329243417</v>
+        <v>1.117607130474261</v>
       </c>
       <c r="L6">
-        <v>1.088906724610299</v>
+        <v>1.109608194557146</v>
       </c>
       <c r="M6">
-        <v>1.101955775161687</v>
+        <v>1.123094598180215</v>
       </c>
       <c r="N6">
-        <v>1.093490657148017</v>
+        <v>1.112100141480626</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.071955989544404</v>
+        <v>1.105847173793381</v>
       </c>
       <c r="D7">
-        <v>1.085172068522787</v>
+        <v>1.114825316253</v>
       </c>
       <c r="E7">
-        <v>1.077432069051028</v>
+        <v>1.106839969084588</v>
       </c>
       <c r="F7">
-        <v>1.090488185583596</v>
+        <v>1.120326113241201</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078934652200126</v>
+        <v>1.064696192354642</v>
       </c>
       <c r="J7">
-        <v>1.089676947015241</v>
+        <v>1.110065899855159</v>
       </c>
       <c r="K7">
-        <v>1.094338048527674</v>
+        <v>1.117124389749298</v>
       </c>
       <c r="L7">
-        <v>1.086675120815445</v>
+        <v>1.109156425226704</v>
       </c>
       <c r="M7">
-        <v>1.099601998495361</v>
+        <v>1.122613366372629</v>
       </c>
       <c r="N7">
-        <v>1.091224413267695</v>
+        <v>1.111642320759292</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.059862990133199</v>
+        <v>1.103490579969065</v>
       </c>
       <c r="D8">
-        <v>1.073838723193769</v>
+        <v>1.1125670152263</v>
       </c>
       <c r="E8">
-        <v>1.066652790028201</v>
+        <v>1.104709005546414</v>
       </c>
       <c r="F8">
-        <v>1.079200155383439</v>
+        <v>1.118075387212083</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074563420969031</v>
+        <v>1.064025482040965</v>
       </c>
       <c r="J8">
-        <v>1.079866557778569</v>
+        <v>1.108148497930307</v>
       </c>
       <c r="K8">
-        <v>1.084103445024394</v>
+        <v>1.115100429771191</v>
       </c>
       <c r="L8">
-        <v>1.0769997032731</v>
+        <v>1.107261390376755</v>
       </c>
       <c r="M8">
-        <v>1.089404432120535</v>
+        <v>1.12059567451051</v>
       </c>
       <c r="N8">
-        <v>1.08140009215304</v>
+        <v>1.109722195903778</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.03672959223697</v>
+        <v>1.099315455066291</v>
       </c>
       <c r="D9">
-        <v>1.052196611173731</v>
+        <v>1.108567052327218</v>
       </c>
       <c r="E9">
-        <v>1.04604847547688</v>
+        <v>1.100931567405441</v>
       </c>
       <c r="F9">
-        <v>1.057646928696946</v>
+        <v>1.114088654069486</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.06606394094581</v>
+        <v>1.062821455749108</v>
       </c>
       <c r="J9">
-        <v>1.061048823452243</v>
+        <v>1.104744433494473</v>
       </c>
       <c r="K9">
-        <v>1.06449602211468</v>
+        <v>1.111509762239837</v>
       </c>
       <c r="L9">
-        <v>1.058436153757793</v>
+        <v>1.103895928444343</v>
       </c>
       <c r="M9">
-        <v>1.069869174921084</v>
+        <v>1.117015907496045</v>
       </c>
       <c r="N9">
-        <v>1.062555634485546</v>
+        <v>1.106313297305993</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.019787783393694</v>
+        <v>1.096515933401987</v>
       </c>
       <c r="D10">
-        <v>1.036380187512189</v>
+        <v>1.10588570258103</v>
       </c>
       <c r="E10">
-        <v>1.030977123335304</v>
+        <v>1.098397341509095</v>
       </c>
       <c r="F10">
-        <v>1.041897824229987</v>
+        <v>1.11141604807559</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059749602166465</v>
+        <v>1.062003547060509</v>
       </c>
       <c r="J10">
-        <v>1.04723772541508</v>
+        <v>1.102457199235229</v>
       </c>
       <c r="K10">
-        <v>1.050122250360721</v>
+        <v>1.109098881597639</v>
       </c>
       <c r="L10">
-        <v>1.044808728652742</v>
+        <v>1.1016338766811</v>
       </c>
       <c r="M10">
-        <v>1.055549676881036</v>
+        <v>1.114612198499366</v>
       </c>
       <c r="N10">
-        <v>1.048724923105015</v>
+        <v>1.104022814911751</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.01200962164943</v>
+        <v>1.095299671916041</v>
       </c>
       <c r="D11">
-        <v>1.029128557287674</v>
+        <v>1.104720960283738</v>
       </c>
       <c r="E11">
-        <v>1.02406408028803</v>
+        <v>1.097296020264916</v>
       </c>
       <c r="F11">
-        <v>1.034677831177214</v>
+        <v>1.110255074662407</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056830506212116</v>
+        <v>1.061645697770973</v>
       </c>
       <c r="J11">
-        <v>1.040891182422893</v>
+        <v>1.101462384715778</v>
       </c>
       <c r="K11">
-        <v>1.043521292570887</v>
+        <v>1.108050699787543</v>
       </c>
       <c r="L11">
-        <v>1.038546017515533</v>
+        <v>1.100649833918955</v>
       </c>
       <c r="M11">
-        <v>1.048974122442697</v>
+        <v>1.113567099914101</v>
       </c>
       <c r="N11">
-        <v>1.042369367293821</v>
+        <v>1.103026587641576</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.009045483169386</v>
+        <v>1.094847270899307</v>
       </c>
       <c r="D12">
-        <v>1.026366750673537</v>
+        <v>1.104287749917477</v>
       </c>
       <c r="E12">
-        <v>1.021430790630112</v>
+        <v>1.096886325037579</v>
       </c>
       <c r="F12">
-        <v>1.031928211598855</v>
+        <v>1.10982326170905</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055715185966408</v>
+        <v>1.061512215794582</v>
       </c>
       <c r="J12">
-        <v>1.038471894892028</v>
+        <v>1.101092185491654</v>
       </c>
       <c r="K12">
-        <v>1.041005658541801</v>
+        <v>1.107660702937947</v>
       </c>
       <c r="L12">
-        <v>1.036158614240201</v>
+        <v>1.100283615786325</v>
       </c>
       <c r="M12">
-        <v>1.046468257548383</v>
+        <v>1.11317824502318</v>
       </c>
       <c r="N12">
-        <v>1.039946644097166</v>
+        <v>1.102655862692091</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.009684848637761</v>
+        <v>1.094944341146938</v>
       </c>
       <c r="D13">
-        <v>1.026962393905601</v>
+        <v>1.104380701230874</v>
       </c>
       <c r="E13">
-        <v>1.021998735673851</v>
+        <v>1.096974234178501</v>
       </c>
       <c r="F13">
-        <v>1.032521219821982</v>
+        <v>1.109915913385489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055955889246228</v>
+        <v>1.061540873615332</v>
       </c>
       <c r="J13">
-        <v>1.038993765636324</v>
+        <v>1.101171625544487</v>
       </c>
       <c r="K13">
-        <v>1.041548283549363</v>
+        <v>1.107744388509677</v>
       </c>
       <c r="L13">
-        <v>1.036673610152914</v>
+        <v>1.100362202789355</v>
       </c>
       <c r="M13">
-        <v>1.047008771094514</v>
+        <v>1.113261685789068</v>
       </c>
       <c r="N13">
-        <v>1.040469255957778</v>
+        <v>1.102735415558911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.01176618973461</v>
+        <v>1.095262289214421</v>
       </c>
       <c r="D14">
-        <v>1.02890170680483</v>
+        <v>1.104685162774009</v>
       </c>
       <c r="E14">
-        <v>1.023847794668024</v>
+        <v>1.097262167383238</v>
       </c>
       <c r="F14">
-        <v>1.034451978788094</v>
+        <v>1.110219392714239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056738967597943</v>
+        <v>1.061634675587675</v>
       </c>
       <c r="J14">
-        <v>1.04069251036778</v>
+        <v>1.101431797912433</v>
       </c>
       <c r="K14">
-        <v>1.043314695592678</v>
+        <v>1.108018475992058</v>
       </c>
       <c r="L14">
-        <v>1.038349965169505</v>
+        <v>1.100619576602951</v>
       </c>
       <c r="M14">
-        <v>1.04876832587716</v>
+        <v>1.113534970580128</v>
       </c>
       <c r="N14">
-        <v>1.042170413101602</v>
+        <v>1.102995957401462</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013038354324975</v>
+        <v>1.095458103814997</v>
       </c>
       <c r="D15">
-        <v>1.030087286839875</v>
+        <v>1.104872675101241</v>
       </c>
       <c r="E15">
-        <v>1.024978142449769</v>
+        <v>1.097439490469963</v>
       </c>
       <c r="F15">
-        <v>1.035632348254339</v>
+        <v>1.110406299535122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057217227786701</v>
+        <v>1.061692395568525</v>
       </c>
       <c r="J15">
-        <v>1.041730733730977</v>
+        <v>1.101592008007058</v>
       </c>
       <c r="K15">
-        <v>1.044394358980467</v>
+        <v>1.108187262992461</v>
       </c>
       <c r="L15">
-        <v>1.039374495579418</v>
+        <v>1.100778059759571</v>
       </c>
       <c r="M15">
-        <v>1.049843810019693</v>
+        <v>1.113703262581363</v>
       </c>
       <c r="N15">
-        <v>1.043210110861061</v>
+        <v>1.103156395012797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.020293982645508</v>
+        <v>1.096596565734537</v>
       </c>
       <c r="D16">
-        <v>1.036852338852392</v>
+        <v>1.105962923260168</v>
       </c>
       <c r="E16">
-        <v>1.031427168695541</v>
+        <v>1.098470347188031</v>
       </c>
       <c r="F16">
-        <v>1.042367933317287</v>
+        <v>1.111493018269337</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05993917187519</v>
+        <v>1.062027218052383</v>
       </c>
       <c r="J16">
-        <v>1.047650649240339</v>
+        <v>1.102523127189886</v>
       </c>
       <c r="K16">
-        <v>1.050551813415427</v>
+        <v>1.109168354950109</v>
       </c>
       <c r="L16">
-        <v>1.045216187460424</v>
+        <v>1.101699086949024</v>
       </c>
       <c r="M16">
-        <v>1.055977597905812</v>
+        <v>1.114681466765069</v>
       </c>
       <c r="N16">
-        <v>1.049138433329469</v>
+        <v>1.104088836491666</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.024721284438614</v>
+        <v>1.097309595235241</v>
       </c>
       <c r="D17">
-        <v>1.040982975471874</v>
+        <v>1.106645804329101</v>
       </c>
       <c r="E17">
-        <v>1.035364073722951</v>
+        <v>1.099115897734616</v>
       </c>
       <c r="F17">
-        <v>1.046480791891846</v>
+        <v>1.112173680861397</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.061594940671059</v>
+        <v>1.062236251005912</v>
       </c>
       <c r="J17">
-        <v>1.051261522610333</v>
+        <v>1.103105997385757</v>
       </c>
       <c r="K17">
-        <v>1.054308656376112</v>
+        <v>1.109782617526683</v>
       </c>
       <c r="L17">
-        <v>1.048779208562092</v>
+        <v>1.102275591161421</v>
       </c>
       <c r="M17">
-        <v>1.059720135306723</v>
+        <v>1.115293912015476</v>
       </c>
       <c r="N17">
-        <v>1.052754434553822</v>
+        <v>1.104672534430071</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027261635819668</v>
+        <v>1.097725103785109</v>
       </c>
       <c r="D18">
-        <v>1.043354006278788</v>
+        <v>1.107043761470199</v>
       </c>
       <c r="E18">
-        <v>1.037623617741997</v>
+        <v>1.099492053125881</v>
       </c>
       <c r="F18">
-        <v>1.048841688287211</v>
+        <v>1.112570342336457</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062543125778847</v>
+        <v>1.06235782085934</v>
       </c>
       <c r="J18">
-        <v>1.053332870498343</v>
+        <v>1.103445549639465</v>
       </c>
       <c r="K18">
-        <v>1.056464123662893</v>
+        <v>1.110140497096682</v>
       </c>
       <c r="L18">
-        <v>1.050823052276883</v>
+        <v>1.102611417475217</v>
       </c>
       <c r="M18">
-        <v>1.061867438297484</v>
+        <v>1.115650729430518</v>
       </c>
       <c r="N18">
-        <v>1.05482872399342</v>
+        <v>1.105012568886926</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.02812093767796</v>
+        <v>1.09786671596536</v>
       </c>
       <c r="D19">
-        <v>1.044156181558852</v>
+        <v>1.107179394736457</v>
       </c>
       <c r="E19">
-        <v>1.038388025998135</v>
+        <v>1.099620247881911</v>
       </c>
       <c r="F19">
-        <v>1.049640446215629</v>
+        <v>1.112705533529447</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062863537210202</v>
+        <v>1.062399212929421</v>
       </c>
       <c r="J19">
-        <v>1.054033430803221</v>
+        <v>1.103561256386927</v>
       </c>
       <c r="K19">
-        <v>1.057193199378079</v>
+        <v>1.110262455829451</v>
       </c>
       <c r="L19">
-        <v>1.051514300746814</v>
+        <v>1.102725851611309</v>
       </c>
       <c r="M19">
-        <v>1.062593759427717</v>
+        <v>1.115772325631871</v>
       </c>
       <c r="N19">
-        <v>1.055530279174285</v>
+        <v>1.105128439951242</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.024250679866161</v>
+        <v>1.097233134341214</v>
       </c>
       <c r="D20">
-        <v>1.04054380988376</v>
+        <v>1.106572574583542</v>
       </c>
       <c r="E20">
-        <v>1.03494553481236</v>
+        <v>1.099046676040498</v>
       </c>
       <c r="F20">
-        <v>1.046043508983107</v>
+        <v>1.112100689309244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061419134126512</v>
+        <v>1.062213860569661</v>
       </c>
       <c r="J20">
-        <v>1.050877756746216</v>
+        <v>1.103043505113811</v>
       </c>
       <c r="K20">
-        <v>1.053909336598383</v>
+        <v>1.109716755428846</v>
       </c>
       <c r="L20">
-        <v>1.048400534016167</v>
+        <v>1.102213783220953</v>
       </c>
       <c r="M20">
-        <v>1.059322331461408</v>
+        <v>1.115228245120544</v>
       </c>
       <c r="N20">
-        <v>1.052370123698158</v>
+        <v>1.10460995341193</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.011155433118975</v>
+        <v>1.095168678903561</v>
       </c>
       <c r="D21">
-        <v>1.028332579719153</v>
+        <v>1.104595522401639</v>
       </c>
       <c r="E21">
-        <v>1.02330516601129</v>
+        <v>1.097177395357319</v>
       </c>
       <c r="F21">
-        <v>1.033885358035602</v>
+        <v>1.11013004164849</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056509256455805</v>
+        <v>1.061607068778837</v>
       </c>
       <c r="J21">
-        <v>1.04019404267478</v>
+        <v>1.101355202555667</v>
       </c>
       <c r="K21">
-        <v>1.04279635453888</v>
+        <v>1.107937782285154</v>
       </c>
       <c r="L21">
-        <v>1.037858069212492</v>
+        <v>1.100543805904277</v>
       </c>
       <c r="M21">
-        <v>1.048251994486908</v>
+        <v>1.113454513336268</v>
       </c>
       <c r="N21">
-        <v>1.041671237527302</v>
+        <v>1.102919253270503</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002482625067102</v>
+        <v>1.09386703470017</v>
       </c>
       <c r="D22">
-        <v>1.020255229952528</v>
+        <v>1.103349146053112</v>
       </c>
       <c r="E22">
-        <v>1.01560288128526</v>
+        <v>1.095998534947771</v>
       </c>
       <c r="F22">
-        <v>1.025843942443836</v>
+        <v>1.10888767754047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053240565785183</v>
+        <v>1.061222306694092</v>
       </c>
       <c r="J22">
-        <v>1.033114238498658</v>
+        <v>1.100289752815943</v>
       </c>
       <c r="K22">
-        <v>1.035435830000119</v>
+        <v>1.106815470817257</v>
       </c>
       <c r="L22">
-        <v>1.030871452024124</v>
+        <v>1.099489762089898</v>
       </c>
       <c r="M22">
-        <v>1.040920241797461</v>
+        <v>1.112335478313955</v>
       </c>
       <c r="N22">
-        <v>1.034581379217186</v>
+        <v>1.101852290469941</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.007125177034733</v>
+        <v>1.094557412219596</v>
       </c>
       <c r="D23">
-        <v>1.024578025621167</v>
+        <v>1.104010194755246</v>
       </c>
       <c r="E23">
-        <v>1.019725181541978</v>
+        <v>1.096623815163723</v>
       </c>
       <c r="F23">
-        <v>1.030147421654681</v>
+        <v>1.109546600632647</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05499183019449</v>
+        <v>1.061426586426055</v>
       </c>
       <c r="J23">
-        <v>1.036904386314115</v>
+        <v>1.100854947295573</v>
       </c>
       <c r="K23">
-        <v>1.039375906079903</v>
+        <v>1.107410795073189</v>
       </c>
       <c r="L23">
-        <v>1.034611745791349</v>
+        <v>1.100048921097177</v>
       </c>
       <c r="M23">
-        <v>1.044844861058997</v>
+        <v>1.112929067452325</v>
       </c>
       <c r="N23">
-        <v>1.038376909477277</v>
+        <v>1.102418287590559</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.024463455040738</v>
+        <v>1.097267684931239</v>
       </c>
       <c r="D24">
-        <v>1.040742367703962</v>
+        <v>1.10660566505271</v>
       </c>
       <c r="E24">
-        <v>1.035134767673094</v>
+        <v>1.099077955528672</v>
       </c>
       <c r="F24">
-        <v>1.046241215379117</v>
+        <v>1.112133672154215</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061498627677347</v>
+        <v>1.062223978942513</v>
       </c>
       <c r="J24">
-        <v>1.051051271101317</v>
+        <v>1.103071743997871</v>
       </c>
       <c r="K24">
-        <v>1.05408988223981</v>
+        <v>1.109746516940659</v>
       </c>
       <c r="L24">
-        <v>1.048571746572383</v>
+        <v>1.102241712924518</v>
       </c>
       <c r="M24">
-        <v>1.05950219156573</v>
+        <v>1.115257918435177</v>
       </c>
       <c r="N24">
-        <v>1.052543884463547</v>
+        <v>1.104638232398446</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.042953773377689</v>
+        <v>1.100397591559069</v>
       </c>
       <c r="D25">
-        <v>1.058014510490238</v>
+        <v>1.109603664960432</v>
       </c>
       <c r="E25">
-        <v>1.051589685559204</v>
+        <v>1.101910869980009</v>
       </c>
       <c r="F25">
-        <v>1.063440594825964</v>
+        <v>1.115121860164508</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068366227585526</v>
+        <v>1.063135384194622</v>
       </c>
       <c r="J25">
-        <v>1.066117267115234</v>
+        <v>1.105627553486291</v>
       </c>
       <c r="K25">
-        <v>1.06977435528007</v>
+        <v>1.112440988331694</v>
       </c>
       <c r="L25">
-        <v>1.063436648797845</v>
+        <v>1.104769165633658</v>
       </c>
       <c r="M25">
-        <v>1.075127893013628</v>
+        <v>1.117944332496756</v>
       </c>
       <c r="N25">
-        <v>1.067631275919897</v>
+        <v>1.107197671429494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.102882404376526</v>
+        <v>1.056635303938233</v>
       </c>
       <c r="D2">
-        <v>1.111984274116987</v>
+        <v>1.070816066873442</v>
       </c>
       <c r="E2">
-        <v>1.104158919159907</v>
+        <v>1.063776567951873</v>
       </c>
       <c r="F2">
-        <v>1.117494588057065</v>
+        <v>1.076189716333686</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063851322556931</v>
+        <v>1.073387590723913</v>
       </c>
       <c r="J2">
-        <v>1.107653188708778</v>
+        <v>1.077244637108941</v>
       </c>
       <c r="K2">
-        <v>1.114577768308342</v>
+        <v>1.081369703651062</v>
       </c>
       <c r="L2">
-        <v>1.106771784569194</v>
+        <v>1.074413538661953</v>
       </c>
       <c r="M2">
-        <v>1.120074616826322</v>
+        <v>1.08668064664642</v>
       </c>
       <c r="N2">
-        <v>1.109226183286341</v>
+        <v>1.078774448055322</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.104680209325298</v>
+        <v>1.066047779618962</v>
       </c>
       <c r="D3">
-        <v>1.113706973285099</v>
+        <v>1.079633330263477</v>
       </c>
       <c r="E3">
-        <v>1.105784844255862</v>
+        <v>1.072165140052353</v>
       </c>
       <c r="F3">
-        <v>1.119211531459812</v>
+        <v>1.084971500161687</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.064364894093118</v>
+        <v>1.076806070831056</v>
       </c>
       <c r="J3">
-        <v>1.109116791844593</v>
+        <v>1.084886656883734</v>
       </c>
       <c r="K3">
-        <v>1.116122400155308</v>
+        <v>1.08933943295264</v>
       </c>
       <c r="L3">
-        <v>1.108218446758596</v>
+        <v>1.081950980834238</v>
       </c>
       <c r="M3">
-        <v>1.121614491499204</v>
+        <v>1.094621429204592</v>
       </c>
       <c r="N3">
-        <v>1.110691864906486</v>
+        <v>1.086427320374748</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.105840661371052</v>
+        <v>1.071923440279577</v>
       </c>
       <c r="D4">
-        <v>1.114819074885089</v>
+        <v>1.085141546081476</v>
       </c>
       <c r="E4">
-        <v>1.106834081408451</v>
+        <v>1.077403050164277</v>
       </c>
       <c r="F4">
-        <v>1.120319892919239</v>
+        <v>1.09045778420878</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064694348096832</v>
+        <v>1.078922964554171</v>
       </c>
       <c r="J4">
-        <v>1.110060605276339</v>
+        <v>1.089650571830125</v>
       </c>
       <c r="K4">
-        <v>1.117118799421269</v>
+        <v>1.094310519820585</v>
       </c>
       <c r="L4">
-        <v>1.109151193053072</v>
+        <v>1.086649111213688</v>
       </c>
       <c r="M4">
-        <v>1.122607793486566</v>
+        <v>1.099574568975876</v>
       </c>
       <c r="N4">
-        <v>1.111637018661562</v>
+        <v>1.091198000626791</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.106327848991577</v>
+        <v>1.07434560967544</v>
       </c>
       <c r="D5">
-        <v>1.115285994063125</v>
+        <v>1.087413148816122</v>
       </c>
       <c r="E5">
-        <v>1.107274513299948</v>
+        <v>1.079562573655511</v>
       </c>
       <c r="F5">
-        <v>1.120785235911389</v>
+        <v>1.092720390050329</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064832170834366</v>
+        <v>1.079791476938518</v>
       </c>
       <c r="J5">
-        <v>1.110456622595924</v>
+        <v>1.091612808279984</v>
       </c>
       <c r="K5">
-        <v>1.117536961340993</v>
+        <v>1.096358777469395</v>
       </c>
       <c r="L5">
-        <v>1.109542532683325</v>
+        <v>1.088584106364108</v>
       </c>
       <c r="M5">
-        <v>1.123024648716195</v>
+        <v>1.101615452074034</v>
       </c>
       <c r="N5">
-        <v>1.112033598371165</v>
+        <v>1.093163023677481</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.1064096113024</v>
+        <v>1.074749584617142</v>
       </c>
       <c r="D6">
-        <v>1.115364356582072</v>
+        <v>1.087792063171705</v>
       </c>
       <c r="E6">
-        <v>1.107348425011855</v>
+        <v>1.079922756962993</v>
       </c>
       <c r="F6">
-        <v>1.120863333555597</v>
+        <v>1.093097806277502</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064855272170074</v>
+        <v>1.079936083614498</v>
       </c>
       <c r="J6">
-        <v>1.110523071340546</v>
+        <v>1.091939977133219</v>
       </c>
       <c r="K6">
-        <v>1.117607130474261</v>
+        <v>1.096700329243413</v>
       </c>
       <c r="L6">
-        <v>1.109608194557146</v>
+        <v>1.088906724610296</v>
       </c>
       <c r="M6">
-        <v>1.123094598180215</v>
+        <v>1.101955775161683</v>
       </c>
       <c r="N6">
-        <v>1.112100141480626</v>
+        <v>1.093490657148014</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.105847173793381</v>
+        <v>1.071955989544404</v>
       </c>
       <c r="D7">
-        <v>1.114825316253</v>
+        <v>1.085172068522787</v>
       </c>
       <c r="E7">
-        <v>1.106839969084588</v>
+        <v>1.077432069051028</v>
       </c>
       <c r="F7">
-        <v>1.120326113241201</v>
+        <v>1.090488185583595</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064696192354642</v>
+        <v>1.078934652200126</v>
       </c>
       <c r="J7">
-        <v>1.110065899855159</v>
+        <v>1.089676947015241</v>
       </c>
       <c r="K7">
-        <v>1.117124389749298</v>
+        <v>1.094338048527674</v>
       </c>
       <c r="L7">
-        <v>1.109156425226704</v>
+        <v>1.086675120815446</v>
       </c>
       <c r="M7">
-        <v>1.122613366372629</v>
+        <v>1.099601998495361</v>
       </c>
       <c r="N7">
-        <v>1.111642320759292</v>
+        <v>1.091224413267695</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.103490579969065</v>
+        <v>1.059862990133199</v>
       </c>
       <c r="D8">
-        <v>1.1125670152263</v>
+        <v>1.073838723193769</v>
       </c>
       <c r="E8">
-        <v>1.104709005546414</v>
+        <v>1.066652790028201</v>
       </c>
       <c r="F8">
-        <v>1.118075387212083</v>
+        <v>1.079200155383439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064025482040965</v>
+        <v>1.074563420969031</v>
       </c>
       <c r="J8">
-        <v>1.108148497930307</v>
+        <v>1.079866557778569</v>
       </c>
       <c r="K8">
-        <v>1.115100429771191</v>
+        <v>1.084103445024394</v>
       </c>
       <c r="L8">
-        <v>1.107261390376755</v>
+        <v>1.0769997032731</v>
       </c>
       <c r="M8">
-        <v>1.12059567451051</v>
+        <v>1.089404432120536</v>
       </c>
       <c r="N8">
-        <v>1.109722195903778</v>
+        <v>1.08140009215304</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.099315455066291</v>
+        <v>1.036729592236971</v>
       </c>
       <c r="D9">
-        <v>1.108567052327218</v>
+        <v>1.052196611173733</v>
       </c>
       <c r="E9">
-        <v>1.100931567405441</v>
+        <v>1.046048475476882</v>
       </c>
       <c r="F9">
-        <v>1.114088654069486</v>
+        <v>1.057646928696948</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.062821455749108</v>
+        <v>1.066063940945811</v>
       </c>
       <c r="J9">
-        <v>1.104744433494473</v>
+        <v>1.061048823452245</v>
       </c>
       <c r="K9">
-        <v>1.111509762239837</v>
+        <v>1.064496022114682</v>
       </c>
       <c r="L9">
-        <v>1.103895928444343</v>
+        <v>1.058436153757794</v>
       </c>
       <c r="M9">
-        <v>1.117015907496045</v>
+        <v>1.069869174921086</v>
       </c>
       <c r="N9">
-        <v>1.106313297305993</v>
+        <v>1.062555634485548</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.096515933401987</v>
+        <v>1.019787783393697</v>
       </c>
       <c r="D10">
-        <v>1.10588570258103</v>
+        <v>1.036380187512192</v>
       </c>
       <c r="E10">
-        <v>1.098397341509095</v>
+        <v>1.030977123335307</v>
       </c>
       <c r="F10">
-        <v>1.11141604807559</v>
+        <v>1.041897824229991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.062003547060509</v>
+        <v>1.059749602166467</v>
       </c>
       <c r="J10">
-        <v>1.102457199235229</v>
+        <v>1.047237725415082</v>
       </c>
       <c r="K10">
-        <v>1.109098881597639</v>
+        <v>1.050122250360725</v>
       </c>
       <c r="L10">
-        <v>1.1016338766811</v>
+        <v>1.044808728652744</v>
       </c>
       <c r="M10">
-        <v>1.114612198499366</v>
+        <v>1.055549676881039</v>
       </c>
       <c r="N10">
-        <v>1.104022814911751</v>
+        <v>1.048724923105018</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.095299671916041</v>
+        <v>1.012009621649428</v>
       </c>
       <c r="D11">
-        <v>1.104720960283738</v>
+        <v>1.029128557287672</v>
       </c>
       <c r="E11">
-        <v>1.097296020264916</v>
+        <v>1.024064080288028</v>
       </c>
       <c r="F11">
-        <v>1.110255074662407</v>
+        <v>1.034677831177212</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.061645697770973</v>
+        <v>1.056830506212115</v>
       </c>
       <c r="J11">
-        <v>1.101462384715778</v>
+        <v>1.040891182422891</v>
       </c>
       <c r="K11">
-        <v>1.108050699787543</v>
+        <v>1.043521292570885</v>
       </c>
       <c r="L11">
-        <v>1.100649833918955</v>
+        <v>1.038546017515531</v>
       </c>
       <c r="M11">
-        <v>1.113567099914101</v>
+        <v>1.048974122442695</v>
       </c>
       <c r="N11">
-        <v>1.103026587641576</v>
+        <v>1.042369367293819</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.094847270899307</v>
+        <v>1.009045483169384</v>
       </c>
       <c r="D12">
-        <v>1.104287749917477</v>
+        <v>1.026366750673535</v>
       </c>
       <c r="E12">
-        <v>1.096886325037579</v>
+        <v>1.021430790630109</v>
       </c>
       <c r="F12">
-        <v>1.10982326170905</v>
+        <v>1.031928211598853</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.061512215794582</v>
+        <v>1.055715185966408</v>
       </c>
       <c r="J12">
-        <v>1.101092185491654</v>
+        <v>1.038471894892026</v>
       </c>
       <c r="K12">
-        <v>1.107660702937947</v>
+        <v>1.041005658541799</v>
       </c>
       <c r="L12">
-        <v>1.100283615786325</v>
+        <v>1.036158614240199</v>
       </c>
       <c r="M12">
-        <v>1.11317824502318</v>
+        <v>1.046468257548381</v>
       </c>
       <c r="N12">
-        <v>1.102655862692091</v>
+        <v>1.039946644097164</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.094944341146938</v>
+        <v>1.009684848637759</v>
       </c>
       <c r="D13">
-        <v>1.104380701230874</v>
+        <v>1.026962393905598</v>
       </c>
       <c r="E13">
-        <v>1.096974234178501</v>
+        <v>1.021998735673849</v>
       </c>
       <c r="F13">
-        <v>1.109915913385489</v>
+        <v>1.03252121982198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.061540873615332</v>
+        <v>1.055955889246227</v>
       </c>
       <c r="J13">
-        <v>1.101171625544487</v>
+        <v>1.038993765636322</v>
       </c>
       <c r="K13">
-        <v>1.107744388509677</v>
+        <v>1.04154828354936</v>
       </c>
       <c r="L13">
-        <v>1.100362202789355</v>
+        <v>1.036673610152911</v>
       </c>
       <c r="M13">
-        <v>1.113261685789068</v>
+        <v>1.047008771094512</v>
       </c>
       <c r="N13">
-        <v>1.102735415558911</v>
+        <v>1.040469255957776</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.095262289214421</v>
+        <v>1.01176618973461</v>
       </c>
       <c r="D14">
-        <v>1.104685162774009</v>
+        <v>1.02890170680483</v>
       </c>
       <c r="E14">
-        <v>1.097262167383238</v>
+        <v>1.023847794668024</v>
       </c>
       <c r="F14">
-        <v>1.110219392714239</v>
+        <v>1.034451978788094</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.061634675587675</v>
+        <v>1.056738967597942</v>
       </c>
       <c r="J14">
-        <v>1.101431797912433</v>
+        <v>1.04069251036778</v>
       </c>
       <c r="K14">
-        <v>1.108018475992058</v>
+        <v>1.043314695592678</v>
       </c>
       <c r="L14">
-        <v>1.100619576602951</v>
+        <v>1.038349965169505</v>
       </c>
       <c r="M14">
-        <v>1.113534970580128</v>
+        <v>1.04876832587716</v>
       </c>
       <c r="N14">
-        <v>1.102995957401462</v>
+        <v>1.042170413101602</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.095458103814997</v>
+        <v>1.013038354324977</v>
       </c>
       <c r="D15">
-        <v>1.104872675101241</v>
+        <v>1.030087286839877</v>
       </c>
       <c r="E15">
-        <v>1.097439490469963</v>
+        <v>1.02497814244977</v>
       </c>
       <c r="F15">
-        <v>1.110406299535122</v>
+        <v>1.035632348254341</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.061692395568525</v>
+        <v>1.057217227786702</v>
       </c>
       <c r="J15">
-        <v>1.101592008007058</v>
+        <v>1.041730733730979</v>
       </c>
       <c r="K15">
-        <v>1.108187262992461</v>
+        <v>1.044394358980469</v>
       </c>
       <c r="L15">
-        <v>1.100778059759571</v>
+        <v>1.03937449557942</v>
       </c>
       <c r="M15">
-        <v>1.113703262581363</v>
+        <v>1.049843810019694</v>
       </c>
       <c r="N15">
-        <v>1.103156395012797</v>
+        <v>1.043210110861062</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.096596565734537</v>
+        <v>1.020293982645507</v>
       </c>
       <c r="D16">
-        <v>1.105962923260168</v>
+        <v>1.036852338852392</v>
       </c>
       <c r="E16">
-        <v>1.098470347188031</v>
+        <v>1.031427168695539</v>
       </c>
       <c r="F16">
-        <v>1.111493018269337</v>
+        <v>1.042367933317285</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.062027218052383</v>
+        <v>1.05993917187519</v>
       </c>
       <c r="J16">
-        <v>1.102523127189886</v>
+        <v>1.047650649240337</v>
       </c>
       <c r="K16">
-        <v>1.109168354950109</v>
+        <v>1.050551813415425</v>
       </c>
       <c r="L16">
-        <v>1.101699086949024</v>
+        <v>1.045216187460423</v>
       </c>
       <c r="M16">
-        <v>1.114681466765069</v>
+        <v>1.05597759790581</v>
       </c>
       <c r="N16">
-        <v>1.104088836491666</v>
+        <v>1.049138433329468</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.097309595235241</v>
+        <v>1.024721284438615</v>
       </c>
       <c r="D17">
-        <v>1.106645804329101</v>
+        <v>1.040982975471875</v>
       </c>
       <c r="E17">
-        <v>1.099115897734616</v>
+        <v>1.035364073722953</v>
       </c>
       <c r="F17">
-        <v>1.112173680861397</v>
+        <v>1.046480791891848</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.062236251005912</v>
+        <v>1.06159494067106</v>
       </c>
       <c r="J17">
-        <v>1.103105997385757</v>
+        <v>1.051261522610334</v>
       </c>
       <c r="K17">
-        <v>1.109782617526683</v>
+        <v>1.054308656376113</v>
       </c>
       <c r="L17">
-        <v>1.102275591161421</v>
+        <v>1.048779208562093</v>
       </c>
       <c r="M17">
-        <v>1.115293912015476</v>
+        <v>1.059720135306724</v>
       </c>
       <c r="N17">
-        <v>1.104672534430071</v>
+        <v>1.052754434553822</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.097725103785109</v>
+        <v>1.027261635819671</v>
       </c>
       <c r="D18">
-        <v>1.107043761470199</v>
+        <v>1.043354006278791</v>
       </c>
       <c r="E18">
-        <v>1.099492053125881</v>
+        <v>1.037623617742</v>
       </c>
       <c r="F18">
-        <v>1.112570342336457</v>
+        <v>1.048841688287215</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.06235782085934</v>
+        <v>1.062543125778848</v>
       </c>
       <c r="J18">
-        <v>1.103445549639465</v>
+        <v>1.053332870498346</v>
       </c>
       <c r="K18">
-        <v>1.110140497096682</v>
+        <v>1.056464123662896</v>
       </c>
       <c r="L18">
-        <v>1.102611417475217</v>
+        <v>1.050823052276886</v>
       </c>
       <c r="M18">
-        <v>1.115650729430518</v>
+        <v>1.061867438297487</v>
       </c>
       <c r="N18">
-        <v>1.105012568886926</v>
+        <v>1.054828723993423</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.09786671596536</v>
+        <v>1.028120937677957</v>
       </c>
       <c r="D19">
-        <v>1.107179394736457</v>
+        <v>1.04415618155885</v>
       </c>
       <c r="E19">
-        <v>1.099620247881911</v>
+        <v>1.038388025998133</v>
       </c>
       <c r="F19">
-        <v>1.112705533529447</v>
+        <v>1.049640446215626</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062399212929421</v>
+        <v>1.062863537210201</v>
       </c>
       <c r="J19">
-        <v>1.103561256386927</v>
+        <v>1.054033430803218</v>
       </c>
       <c r="K19">
-        <v>1.110262455829451</v>
+        <v>1.057193199378077</v>
       </c>
       <c r="L19">
-        <v>1.102725851611309</v>
+        <v>1.051514300746811</v>
       </c>
       <c r="M19">
-        <v>1.115772325631871</v>
+        <v>1.062593759427715</v>
       </c>
       <c r="N19">
-        <v>1.105128439951242</v>
+        <v>1.055530279174283</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.097233134341214</v>
+        <v>1.024250679866161</v>
       </c>
       <c r="D20">
-        <v>1.106572574583542</v>
+        <v>1.04054380988376</v>
       </c>
       <c r="E20">
-        <v>1.099046676040498</v>
+        <v>1.03494553481236</v>
       </c>
       <c r="F20">
-        <v>1.112100689309244</v>
+        <v>1.046043508983107</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.062213860569661</v>
+        <v>1.061419134126512</v>
       </c>
       <c r="J20">
-        <v>1.103043505113811</v>
+        <v>1.050877756746216</v>
       </c>
       <c r="K20">
-        <v>1.109716755428846</v>
+        <v>1.053909336598383</v>
       </c>
       <c r="L20">
-        <v>1.102213783220953</v>
+        <v>1.048400534016167</v>
       </c>
       <c r="M20">
-        <v>1.115228245120544</v>
+        <v>1.059322331461408</v>
       </c>
       <c r="N20">
-        <v>1.10460995341193</v>
+        <v>1.052370123698159</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.095168678903561</v>
+        <v>1.011155433118974</v>
       </c>
       <c r="D21">
-        <v>1.104595522401639</v>
+        <v>1.028332579719152</v>
       </c>
       <c r="E21">
-        <v>1.097177395357319</v>
+        <v>1.023305166011289</v>
       </c>
       <c r="F21">
-        <v>1.11013004164849</v>
+        <v>1.033885358035601</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.061607068778837</v>
+        <v>1.056509256455805</v>
       </c>
       <c r="J21">
-        <v>1.101355202555667</v>
+        <v>1.040194042674778</v>
       </c>
       <c r="K21">
-        <v>1.107937782285154</v>
+        <v>1.042796354538878</v>
       </c>
       <c r="L21">
-        <v>1.100543805904277</v>
+        <v>1.037858069212491</v>
       </c>
       <c r="M21">
-        <v>1.113454513336268</v>
+        <v>1.048251994486907</v>
       </c>
       <c r="N21">
-        <v>1.102919253270503</v>
+        <v>1.041671237527301</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.09386703470017</v>
+        <v>1.002482625067104</v>
       </c>
       <c r="D22">
-        <v>1.103349146053112</v>
+        <v>1.020255229952529</v>
       </c>
       <c r="E22">
-        <v>1.095998534947771</v>
+        <v>1.015602881285261</v>
       </c>
       <c r="F22">
-        <v>1.10888767754047</v>
+        <v>1.025843942443837</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.061222306694092</v>
+        <v>1.053240565785183</v>
       </c>
       <c r="J22">
-        <v>1.100289752815943</v>
+        <v>1.03311423849866</v>
       </c>
       <c r="K22">
-        <v>1.106815470817257</v>
+        <v>1.035435830000121</v>
       </c>
       <c r="L22">
-        <v>1.099489762089898</v>
+        <v>1.030871452024124</v>
       </c>
       <c r="M22">
-        <v>1.112335478313955</v>
+        <v>1.040920241797463</v>
       </c>
       <c r="N22">
-        <v>1.101852290469941</v>
+        <v>1.034581379217187</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.094557412219596</v>
+        <v>1.007125177034736</v>
       </c>
       <c r="D23">
-        <v>1.104010194755246</v>
+        <v>1.02457802562117</v>
       </c>
       <c r="E23">
-        <v>1.096623815163723</v>
+        <v>1.019725181541981</v>
       </c>
       <c r="F23">
-        <v>1.109546600632647</v>
+        <v>1.030147421654684</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061426586426055</v>
+        <v>1.054991830194491</v>
       </c>
       <c r="J23">
-        <v>1.100854947295573</v>
+        <v>1.036904386314118</v>
       </c>
       <c r="K23">
-        <v>1.107410795073189</v>
+        <v>1.039375906079906</v>
       </c>
       <c r="L23">
-        <v>1.100048921097177</v>
+        <v>1.034611745791351</v>
       </c>
       <c r="M23">
-        <v>1.112929067452325</v>
+        <v>1.044844861059</v>
       </c>
       <c r="N23">
-        <v>1.102418287590559</v>
+        <v>1.038376909477279</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.097267684931239</v>
+        <v>1.024463455040736</v>
       </c>
       <c r="D24">
-        <v>1.10660566505271</v>
+        <v>1.04074236770396</v>
       </c>
       <c r="E24">
-        <v>1.099077955528672</v>
+        <v>1.035134767673092</v>
       </c>
       <c r="F24">
-        <v>1.112133672154215</v>
+        <v>1.046241215379114</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.062223978942513</v>
+        <v>1.061498627677346</v>
       </c>
       <c r="J24">
-        <v>1.103071743997871</v>
+        <v>1.051051271101315</v>
       </c>
       <c r="K24">
-        <v>1.109746516940659</v>
+        <v>1.054089882239808</v>
       </c>
       <c r="L24">
-        <v>1.102241712924518</v>
+        <v>1.048571746572381</v>
       </c>
       <c r="M24">
-        <v>1.115257918435177</v>
+        <v>1.059502191565728</v>
       </c>
       <c r="N24">
-        <v>1.104638232398446</v>
+        <v>1.052543884463545</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.100397591559069</v>
+        <v>1.042953773377688</v>
       </c>
       <c r="D25">
-        <v>1.109603664960432</v>
+        <v>1.058014510490237</v>
       </c>
       <c r="E25">
-        <v>1.101910869980009</v>
+        <v>1.051589685559203</v>
       </c>
       <c r="F25">
-        <v>1.115121860164508</v>
+        <v>1.063440594825963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.063135384194622</v>
+        <v>1.068366227585525</v>
       </c>
       <c r="J25">
-        <v>1.105627553486291</v>
+        <v>1.066117267115232</v>
       </c>
       <c r="K25">
-        <v>1.112440988331694</v>
+        <v>1.069774355280069</v>
       </c>
       <c r="L25">
-        <v>1.104769165633658</v>
+        <v>1.063436648797844</v>
       </c>
       <c r="M25">
-        <v>1.117944332496756</v>
+        <v>1.075127893013627</v>
       </c>
       <c r="N25">
-        <v>1.107197671429494</v>
+        <v>1.067631275919896</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056635303938233</v>
+        <v>1.000486607028483</v>
       </c>
       <c r="D2">
-        <v>1.070816066873442</v>
+        <v>1.01833784322001</v>
       </c>
       <c r="E2">
-        <v>1.063776567951873</v>
+        <v>1.015458999162051</v>
       </c>
       <c r="F2">
-        <v>1.076189716333686</v>
+        <v>1.026548934190524</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.073387590723913</v>
+        <v>1.045224098310602</v>
       </c>
       <c r="J2">
-        <v>1.077244637108941</v>
+        <v>1.022652773497312</v>
       </c>
       <c r="K2">
-        <v>1.081369703651062</v>
+        <v>1.029547480143701</v>
       </c>
       <c r="L2">
-        <v>1.074413538661953</v>
+        <v>1.026707086107723</v>
       </c>
       <c r="M2">
-        <v>1.08668064664642</v>
+        <v>1.037650387459277</v>
       </c>
       <c r="N2">
-        <v>1.078774448055322</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008567397625387</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038370143456072</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031962796328715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.066047779618962</v>
+        <v>1.006671023274655</v>
       </c>
       <c r="D3">
-        <v>1.079633330263477</v>
+        <v>1.023135987644194</v>
       </c>
       <c r="E3">
-        <v>1.072165140052353</v>
+        <v>1.020539582270994</v>
       </c>
       <c r="F3">
-        <v>1.084971500161687</v>
+        <v>1.031226521181674</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.076806070831056</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.084886656883734</v>
+        <v>1.026981466857594</v>
       </c>
       <c r="K3">
-        <v>1.08933943295264</v>
+        <v>1.033481155934924</v>
       </c>
       <c r="L3">
-        <v>1.081950980834238</v>
+        <v>1.030916231054824</v>
       </c>
       <c r="M3">
-        <v>1.094621429204592</v>
+        <v>1.041474854451684</v>
       </c>
       <c r="N3">
-        <v>1.086427320374748</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010350569768239</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.041396955254854</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.03474161660166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.071923440279577</v>
+        <v>1.010573040093064</v>
       </c>
       <c r="D4">
-        <v>1.085141546081476</v>
+        <v>1.026170074897019</v>
       </c>
       <c r="E4">
-        <v>1.077403050164277</v>
+        <v>1.023750094182966</v>
       </c>
       <c r="F4">
-        <v>1.09045778420878</v>
+        <v>1.034186523523053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.078922964554171</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.089650571830125</v>
+        <v>1.029710099494793</v>
       </c>
       <c r="K4">
-        <v>1.094310519820585</v>
+        <v>1.035962585929053</v>
       </c>
       <c r="L4">
-        <v>1.086649111213688</v>
+        <v>1.033570083798843</v>
       </c>
       <c r="M4">
-        <v>1.099574568975876</v>
+        <v>1.043889138879188</v>
       </c>
       <c r="N4">
-        <v>1.091198000626791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011470117171448</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04330769461387</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036497129283444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07434560967544</v>
+        <v>1.01220236716985</v>
       </c>
       <c r="D5">
-        <v>1.087413148816122</v>
+        <v>1.027441534878815</v>
       </c>
       <c r="E5">
-        <v>1.079562573655511</v>
+        <v>1.025093146302513</v>
       </c>
       <c r="F5">
-        <v>1.092720390050329</v>
+        <v>1.035425552551019</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.079791476938518</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.091612808279984</v>
+        <v>1.030852032906268</v>
       </c>
       <c r="K5">
-        <v>1.096358777469395</v>
+        <v>1.037003083500314</v>
       </c>
       <c r="L5">
-        <v>1.088584106364108</v>
+        <v>1.034680614305101</v>
       </c>
       <c r="M5">
-        <v>1.101615452074034</v>
+        <v>1.044900059293046</v>
       </c>
       <c r="N5">
-        <v>1.093163023677481</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011938950384291</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.044107766801485</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037240056085462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074749584617142</v>
+        <v>1.012488863357552</v>
       </c>
       <c r="D6">
-        <v>1.087792063171705</v>
+        <v>1.02766881989826</v>
       </c>
       <c r="E6">
-        <v>1.079922756962993</v>
+        <v>1.025331013087756</v>
       </c>
       <c r="F6">
-        <v>1.093097806277502</v>
+        <v>1.035644783522714</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.079936083614498</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.091939977133219</v>
+        <v>1.031056706272462</v>
       </c>
       <c r="K6">
-        <v>1.096700329243413</v>
+        <v>1.037191513984223</v>
       </c>
       <c r="L6">
-        <v>1.088906724610296</v>
+        <v>1.034879384982453</v>
       </c>
       <c r="M6">
-        <v>1.101955775161683</v>
+        <v>1.045080941310922</v>
       </c>
       <c r="N6">
-        <v>1.093490657148014</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012024657136498</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.044250922064977</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037382068953259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.071955989544404</v>
+        <v>1.010633705748715</v>
       </c>
       <c r="D7">
-        <v>1.085172068522787</v>
+        <v>1.026227175301692</v>
       </c>
       <c r="E7">
-        <v>1.077432069051028</v>
+        <v>1.023804588112567</v>
       </c>
       <c r="F7">
-        <v>1.090488185583595</v>
+        <v>1.034236011057785</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.078934652200126</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.089676947015241</v>
+        <v>1.029763264237774</v>
       </c>
       <c r="K7">
-        <v>1.094338048527674</v>
+        <v>1.036016141121817</v>
       </c>
       <c r="L7">
-        <v>1.086675120815446</v>
+        <v>1.03362104923719</v>
       </c>
       <c r="M7">
-        <v>1.099601998495361</v>
+        <v>1.04393520795663</v>
       </c>
       <c r="N7">
-        <v>1.091224413267695</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011496745781549</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043344155057612</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036555197061221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.059862990133199</v>
+        <v>1.002648968148179</v>
       </c>
       <c r="D8">
-        <v>1.073838723193769</v>
+        <v>1.020026544614393</v>
       </c>
       <c r="E8">
-        <v>1.066652790028201</v>
+        <v>1.017240365802208</v>
       </c>
       <c r="F8">
-        <v>1.079200155383439</v>
+        <v>1.028186986204818</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.074563420969031</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.079866557778569</v>
+        <v>1.024180607533874</v>
       </c>
       <c r="K8">
-        <v>1.084103445024394</v>
+        <v>1.030941908124311</v>
       </c>
       <c r="L8">
-        <v>1.0769997032731</v>
+        <v>1.028191761562457</v>
       </c>
       <c r="M8">
-        <v>1.089404432120536</v>
+        <v>1.038998217307474</v>
       </c>
       <c r="N8">
-        <v>1.08140009215304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009204105314251</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039436862781345</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.032971883487393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.036729592236971</v>
+        <v>0.987694028288441</v>
       </c>
       <c r="D9">
-        <v>1.052196611173733</v>
+        <v>1.00845481052112</v>
       </c>
       <c r="E9">
-        <v>1.046048475476882</v>
+        <v>1.00498198114063</v>
       </c>
       <c r="F9">
-        <v>1.057646928696948</v>
+        <v>1.016926157434801</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.066063940945811</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.061048823452245</v>
+        <v>1.013688953508096</v>
       </c>
       <c r="K9">
-        <v>1.064496022114682</v>
+        <v>1.021412187669295</v>
       </c>
       <c r="L9">
-        <v>1.058436153757794</v>
+        <v>1.017994743015756</v>
       </c>
       <c r="M9">
-        <v>1.069869174921086</v>
+        <v>1.029750461386046</v>
       </c>
       <c r="N9">
-        <v>1.062555634485548</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.004852952365977</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03211783555939</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026230343427566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.019787783393697</v>
+        <v>0.9773083622296073</v>
       </c>
       <c r="D10">
-        <v>1.036380187512192</v>
+        <v>1.000498768724272</v>
       </c>
       <c r="E10">
-        <v>1.030977123335307</v>
+        <v>0.9965466778831883</v>
       </c>
       <c r="F10">
-        <v>1.041897824229991</v>
+        <v>1.009226369214288</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.059749602166467</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.047237725415082</v>
+        <v>1.006452134708446</v>
       </c>
       <c r="K10">
-        <v>1.050122250360725</v>
+        <v>1.014859023583436</v>
       </c>
       <c r="L10">
-        <v>1.044808728652744</v>
+        <v>1.01097856431779</v>
       </c>
       <c r="M10">
-        <v>1.055549676881039</v>
+        <v>1.023431013220876</v>
       </c>
       <c r="N10">
-        <v>1.048724923105018</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001856899416957</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.027168493103032</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.021613758166663</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012009621649428</v>
+        <v>0.9744236534964839</v>
       </c>
       <c r="D11">
-        <v>1.029128557287672</v>
+        <v>0.9985809874650757</v>
       </c>
       <c r="E11">
-        <v>1.024064080288028</v>
+        <v>0.9945589415532327</v>
       </c>
       <c r="F11">
-        <v>1.034677831177212</v>
+        <v>1.007619892727198</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056830506212115</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.040891182422891</v>
+        <v>1.00490055264976</v>
       </c>
       <c r="K11">
-        <v>1.043521292570885</v>
+        <v>1.013529713990868</v>
       </c>
       <c r="L11">
-        <v>1.038546017515531</v>
+        <v>1.009584202950246</v>
       </c>
       <c r="M11">
-        <v>1.048974122442695</v>
+        <v>1.022399525625845</v>
       </c>
       <c r="N11">
-        <v>1.042369367293819</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.001420583428291</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.026794348190843</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.020707317128024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.009045483169384</v>
+        <v>0.9740413092091363</v>
       </c>
       <c r="D12">
-        <v>1.026366750673535</v>
+        <v>0.9985011264044046</v>
       </c>
       <c r="E12">
-        <v>1.021430790630109</v>
+        <v>0.9945193482011088</v>
       </c>
       <c r="F12">
-        <v>1.031928211598853</v>
+        <v>1.007726825697596</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055715185966408</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.038471894892026</v>
+        <v>1.004986418999851</v>
       </c>
       <c r="K12">
-        <v>1.041005658541799</v>
+        <v>1.013657098915572</v>
       </c>
       <c r="L12">
-        <v>1.036158614240199</v>
+        <v>1.00975230753126</v>
       </c>
       <c r="M12">
-        <v>1.046468257548381</v>
+        <v>1.022707474166247</v>
       </c>
       <c r="N12">
-        <v>1.039946644097164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.001629282330599</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.027368231933691</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.020797385694474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.009684848637759</v>
+        <v>0.9756119961129358</v>
       </c>
       <c r="D13">
-        <v>1.026962393905598</v>
+        <v>0.9998816578925356</v>
       </c>
       <c r="E13">
-        <v>1.021998735673849</v>
+        <v>0.9960236991026767</v>
       </c>
       <c r="F13">
-        <v>1.03252121982198</v>
+        <v>1.00920935600269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055955889246227</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.038993765636322</v>
+        <v>1.006389058997722</v>
       </c>
       <c r="K13">
-        <v>1.04154828354936</v>
+        <v>1.01496708396784</v>
       </c>
       <c r="L13">
-        <v>1.036673610152911</v>
+        <v>1.011183185862574</v>
       </c>
       <c r="M13">
-        <v>1.047008771094512</v>
+        <v>1.0241187721243</v>
       </c>
       <c r="N13">
-        <v>1.040469255957776</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.002374182565338</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.028763508348487</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.02172108225281</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01176618973461</v>
+        <v>0.9775913011308055</v>
       </c>
       <c r="D14">
-        <v>1.02890170680483</v>
+        <v>1.001507196579062</v>
       </c>
       <c r="E14">
-        <v>1.023847794668024</v>
+        <v>0.9977718024195895</v>
       </c>
       <c r="F14">
-        <v>1.034451978788094</v>
+        <v>1.010866846590925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056738967597942</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.04069251036778</v>
+        <v>1.007963998209893</v>
       </c>
       <c r="K14">
-        <v>1.043314695592678</v>
+        <v>1.016417676872228</v>
       </c>
       <c r="L14">
-        <v>1.038349965169505</v>
+        <v>1.012752886179273</v>
       </c>
       <c r="M14">
-        <v>1.04876832587716</v>
+        <v>1.025603403160152</v>
       </c>
       <c r="N14">
-        <v>1.042170413101602</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.003137386040742</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.030111752155468</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022748183892529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.013038354324977</v>
+        <v>0.9785111038879256</v>
       </c>
       <c r="D15">
-        <v>1.030087286839877</v>
+        <v>1.002236764060219</v>
       </c>
       <c r="E15">
-        <v>1.02497814244977</v>
+        <v>0.9985485603911798</v>
       </c>
       <c r="F15">
-        <v>1.035632348254341</v>
+        <v>1.01158924889555</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057217227786702</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.041730733730979</v>
+        <v>1.008649312943246</v>
       </c>
       <c r="K15">
-        <v>1.044394358980469</v>
+        <v>1.017044927431102</v>
       </c>
       <c r="L15">
-        <v>1.03937449557942</v>
+        <v>1.013425820589666</v>
       </c>
       <c r="M15">
-        <v>1.049843810019694</v>
+        <v>1.026225136797483</v>
       </c>
       <c r="N15">
-        <v>1.043210110861062</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.003446664224675</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.030640954977729</v>
+      </c>
+      <c r="Q15">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R15">
+        <v>1.023197653163277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020293982645507</v>
+        <v>0.9826053876399444</v>
       </c>
       <c r="D16">
-        <v>1.036852338852392</v>
+        <v>1.00533837988482</v>
       </c>
       <c r="E16">
-        <v>1.031427168695539</v>
+        <v>1.001825977621457</v>
       </c>
       <c r="F16">
-        <v>1.042367933317285</v>
+        <v>1.014580921828123</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05993917187519</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.047650649240337</v>
+        <v>1.011447501172149</v>
       </c>
       <c r="K16">
-        <v>1.050551813415425</v>
+        <v>1.019575516072524</v>
       </c>
       <c r="L16">
-        <v>1.045216187460423</v>
+        <v>1.016125760499863</v>
       </c>
       <c r="M16">
-        <v>1.05597759790581</v>
+        <v>1.028655891239468</v>
       </c>
       <c r="N16">
-        <v>1.049138433329468</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.004570107548523</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032523247357956</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024990122874158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.024721284438615</v>
+        <v>0.984711735813544</v>
       </c>
       <c r="D17">
-        <v>1.040982975471875</v>
+        <v>1.006869435903367</v>
       </c>
       <c r="E17">
-        <v>1.035364073722953</v>
+        <v>1.003427477132317</v>
       </c>
       <c r="F17">
-        <v>1.046480791891848</v>
+        <v>1.016006549102907</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.06159494067106</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.051261522610334</v>
+        <v>1.012770367280077</v>
       </c>
       <c r="K17">
-        <v>1.054308656376113</v>
+        <v>1.020758081628356</v>
       </c>
       <c r="L17">
-        <v>1.048779208562093</v>
+        <v>1.017375675966739</v>
       </c>
       <c r="M17">
-        <v>1.059720135306724</v>
+        <v>1.029739627870511</v>
       </c>
       <c r="N17">
-        <v>1.052754434553822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00503258881158</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033250039739395</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.025828879325979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027261635819671</v>
+        <v>0.9852714543018359</v>
       </c>
       <c r="D18">
-        <v>1.043354006278791</v>
+        <v>1.007146098755711</v>
       </c>
       <c r="E18">
-        <v>1.037623617742</v>
+        <v>1.00369117218728</v>
       </c>
       <c r="F18">
-        <v>1.048841688287215</v>
+        <v>1.016159097068521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.062543125778848</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.053332870498346</v>
+        <v>1.01290267288735</v>
       </c>
       <c r="K18">
-        <v>1.056464123662896</v>
+        <v>1.02084261086435</v>
       </c>
       <c r="L18">
-        <v>1.050823052276886</v>
+        <v>1.017446493924115</v>
       </c>
       <c r="M18">
-        <v>1.061867438297487</v>
+        <v>1.029704613506642</v>
       </c>
       <c r="N18">
-        <v>1.054828723993423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.004948307934634</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032983036773049</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.025876845268423</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028120937677957</v>
+        <v>0.9845523658128843</v>
       </c>
       <c r="D19">
-        <v>1.04415618155885</v>
+        <v>1.006401200712903</v>
       </c>
       <c r="E19">
-        <v>1.038388025998133</v>
+        <v>1.00285773343291</v>
       </c>
       <c r="F19">
-        <v>1.049640446215626</v>
+        <v>1.015254395437464</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.062863537210201</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.054033430803218</v>
+        <v>1.012073818741195</v>
       </c>
       <c r="K19">
-        <v>1.057193199378077</v>
+        <v>1.020046392796015</v>
       </c>
       <c r="L19">
-        <v>1.051514300746811</v>
+        <v>1.016563040674446</v>
       </c>
       <c r="M19">
-        <v>1.062593759427715</v>
+        <v>1.028751752519808</v>
       </c>
       <c r="N19">
-        <v>1.055530279174283</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.004443042967039</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03190139925735</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025320369156769</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.024250679866161</v>
+        <v>0.9801427817118663</v>
       </c>
       <c r="D20">
-        <v>1.04054380988376</v>
+        <v>1.002695431742696</v>
       </c>
       <c r="E20">
-        <v>1.03494553481236</v>
+        <v>0.9988627419917621</v>
       </c>
       <c r="F20">
-        <v>1.046043508983107</v>
+        <v>1.011337501600863</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.061419134126512</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.050877756746216</v>
+        <v>1.008461224458717</v>
       </c>
       <c r="K20">
-        <v>1.053909336598383</v>
+        <v>1.016691050240793</v>
       </c>
       <c r="L20">
-        <v>1.048400534016167</v>
+        <v>1.012925618230827</v>
       </c>
       <c r="M20">
-        <v>1.059322331461408</v>
+        <v>1.025183881787475</v>
       </c>
       <c r="N20">
-        <v>1.052370123698159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.002706252455232</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.028545029239569</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.02295196014742</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011155433118974</v>
+        <v>0.9719252603483022</v>
       </c>
       <c r="D21">
-        <v>1.028332579719152</v>
+        <v>0.9963613150321402</v>
       </c>
       <c r="E21">
-        <v>1.023305166011289</v>
+        <v>0.9921371243355573</v>
       </c>
       <c r="F21">
-        <v>1.033885358035601</v>
+        <v>1.005165157654392</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056509256455805</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.040194042674778</v>
+        <v>1.002645547567764</v>
       </c>
       <c r="K21">
-        <v>1.042796354538878</v>
+        <v>1.01141195288727</v>
       </c>
       <c r="L21">
-        <v>1.037858069212491</v>
+        <v>1.007269008351846</v>
       </c>
       <c r="M21">
-        <v>1.048251994486907</v>
+        <v>1.02004933085974</v>
       </c>
       <c r="N21">
-        <v>1.041671237527301</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000254944644366</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.024439907952913</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.019222648593419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.002482625067104</v>
+        <v>0.9666436851191462</v>
       </c>
       <c r="D22">
-        <v>1.020255229952529</v>
+        <v>0.9923072354899241</v>
       </c>
       <c r="E22">
-        <v>1.015602881285261</v>
+        <v>0.987838421962757</v>
       </c>
       <c r="F22">
-        <v>1.025843942443837</v>
+        <v>1.001240439384252</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053240565785183</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.03311423849866</v>
+        <v>0.9989210885626615</v>
       </c>
       <c r="K22">
-        <v>1.035435830000121</v>
+        <v>1.008032643603555</v>
       </c>
       <c r="L22">
-        <v>1.030871452024124</v>
+        <v>1.003654714219205</v>
       </c>
       <c r="M22">
-        <v>1.040920241797463</v>
+        <v>1.016787362914708</v>
       </c>
       <c r="N22">
-        <v>1.034581379217187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9986865367748585</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02185821486205</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.016819452358491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.007125177034736</v>
+        <v>0.9694139783285404</v>
       </c>
       <c r="D23">
-        <v>1.02457802562117</v>
+        <v>0.9944225644736739</v>
       </c>
       <c r="E23">
-        <v>1.019725181541981</v>
+        <v>0.9900865424398987</v>
       </c>
       <c r="F23">
-        <v>1.030147421654684</v>
+        <v>1.00329367648387</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054991830194491</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.036904386314118</v>
+        <v>1.000863167204332</v>
       </c>
       <c r="K23">
-        <v>1.039375906079906</v>
+        <v>1.009789932727269</v>
       </c>
       <c r="L23">
-        <v>1.034611745791351</v>
+        <v>1.005539546672185</v>
       </c>
       <c r="M23">
-        <v>1.044844861059</v>
+        <v>1.018488860280176</v>
       </c>
       <c r="N23">
-        <v>1.038376909477279</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.999498958696371</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.023204870647157</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018052123707709</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.024463455040736</v>
+        <v>0.9800480084713826</v>
       </c>
       <c r="D24">
-        <v>1.04074236770396</v>
+        <v>1.002581954447639</v>
       </c>
       <c r="E24">
-        <v>1.035134767673092</v>
+        <v>0.9987455838495045</v>
       </c>
       <c r="F24">
-        <v>1.046241215379114</v>
+        <v>1.011210931968363</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.061498627677346</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.051051271101315</v>
+        <v>1.0083363322029</v>
       </c>
       <c r="K24">
-        <v>1.054089882239808</v>
+        <v>1.016563879283765</v>
       </c>
       <c r="L24">
-        <v>1.048571746572381</v>
+        <v>1.01279476431078</v>
       </c>
       <c r="M24">
-        <v>1.059502191565728</v>
+        <v>1.025043990455161</v>
       </c>
       <c r="N24">
-        <v>1.052543884463545</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00262830526657</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.028392925419585</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022834152610357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.042953773377688</v>
+        <v>0.9917353681860259</v>
       </c>
       <c r="D25">
-        <v>1.058014510490237</v>
+        <v>1.011590803280342</v>
       </c>
       <c r="E25">
-        <v>1.051589685559203</v>
+        <v>1.008297242813549</v>
       </c>
       <c r="F25">
-        <v>1.063440594825963</v>
+        <v>1.019965855424145</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.068366227585525</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.066117267115232</v>
+        <v>1.016544107632637</v>
       </c>
       <c r="K25">
-        <v>1.069774355280069</v>
+        <v>1.024011812642095</v>
       </c>
       <c r="L25">
-        <v>1.063436648797844</v>
+        <v>1.020768105900114</v>
       </c>
       <c r="M25">
-        <v>1.075127893013627</v>
+        <v>1.032261936508141</v>
       </c>
       <c r="N25">
-        <v>1.067631275919896</v>
+        <v>1.006049494042768</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.034105520382372</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028097456418623</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_26/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000486607028483</v>
+        <v>1.002512822572629</v>
       </c>
       <c r="D2">
-        <v>1.01833784322001</v>
+        <v>1.019680311958672</v>
       </c>
       <c r="E2">
-        <v>1.015458999162051</v>
+        <v>1.017409181123551</v>
       </c>
       <c r="F2">
-        <v>1.026548934190524</v>
+        <v>1.027995092213951</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045224098310602</v>
+        <v>1.04522409831064</v>
       </c>
       <c r="J2">
-        <v>1.022652773497312</v>
+        <v>1.024618634433999</v>
       </c>
       <c r="K2">
-        <v>1.029547480143701</v>
+        <v>1.030872111938864</v>
       </c>
       <c r="L2">
-        <v>1.026707086107723</v>
+        <v>1.028631191462404</v>
       </c>
       <c r="M2">
-        <v>1.037650387459277</v>
+        <v>1.039077716029549</v>
       </c>
       <c r="N2">
-        <v>1.008567397625387</v>
+        <v>1.012001216499002</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038370143456072</v>
+        <v>1.039499780779878</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031962796328715</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032908287739442</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019070203678921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006671023274655</v>
+        <v>1.007855747965276</v>
       </c>
       <c r="D3">
-        <v>1.023135987644194</v>
+        <v>1.023627280373429</v>
       </c>
       <c r="E3">
-        <v>1.020539582270994</v>
+        <v>1.021728996774917</v>
       </c>
       <c r="F3">
-        <v>1.031226521181674</v>
+        <v>1.031977662673421</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.026981466857594</v>
+        <v>1.028134524407453</v>
       </c>
       <c r="K3">
-        <v>1.033481155934924</v>
+        <v>1.033966514223353</v>
       </c>
       <c r="L3">
-        <v>1.030916231054824</v>
+        <v>1.032091199661804</v>
       </c>
       <c r="M3">
-        <v>1.041474854451684</v>
+        <v>1.042217101010322</v>
       </c>
       <c r="N3">
-        <v>1.010350569768239</v>
+        <v>1.013126952298555</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.041396955254854</v>
+        <v>1.041984392671595</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.03474161660166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035093362807549</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019932170761526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010573040093064</v>
+        <v>1.011239586360174</v>
       </c>
       <c r="D4">
-        <v>1.026170074897019</v>
+        <v>1.026133324510765</v>
       </c>
       <c r="E4">
-        <v>1.023750094182966</v>
+        <v>1.024470464656374</v>
       </c>
       <c r="F4">
-        <v>1.034186523523053</v>
+        <v>1.034508121124345</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.029710099494793</v>
+        <v>1.030360087583352</v>
       </c>
       <c r="K4">
-        <v>1.035962585929053</v>
+        <v>1.035926251644256</v>
       </c>
       <c r="L4">
-        <v>1.033570083798843</v>
+        <v>1.034282257819873</v>
       </c>
       <c r="M4">
-        <v>1.043889138879188</v>
+        <v>1.044207165868746</v>
       </c>
       <c r="N4">
-        <v>1.011470117171448</v>
+        <v>1.013837181842708</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04330769461387</v>
+        <v>1.043559390634103</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036497129283444</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036480058299036</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020473692150801</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01220236716985</v>
+        <v>1.01265455283574</v>
       </c>
       <c r="D5">
-        <v>1.027441534878815</v>
+        <v>1.027185673212268</v>
       </c>
       <c r="E5">
-        <v>1.025093146302513</v>
+        <v>1.025619322053243</v>
       </c>
       <c r="F5">
-        <v>1.035425552551019</v>
+        <v>1.035569156618115</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.030852032906268</v>
+        <v>1.031293335382988</v>
       </c>
       <c r="K5">
-        <v>1.037003083500314</v>
+        <v>1.036750038733364</v>
       </c>
       <c r="L5">
-        <v>1.034680614305101</v>
+        <v>1.035200969921832</v>
       </c>
       <c r="M5">
-        <v>1.044900059293046</v>
+        <v>1.045042112853275</v>
       </c>
       <c r="N5">
-        <v>1.011938950384291</v>
+        <v>1.014135401889598</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.044107766801485</v>
+        <v>1.044220192102303</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037240056085462</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037070453444249</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020701429536434</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012488863357552</v>
+        <v>1.012902437673755</v>
       </c>
       <c r="D6">
-        <v>1.02766881989826</v>
+        <v>1.027373721184498</v>
       </c>
       <c r="E6">
-        <v>1.025331013087756</v>
+        <v>1.025822139056672</v>
       </c>
       <c r="F6">
-        <v>1.035644783522714</v>
+        <v>1.035756369326147</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.031056706272462</v>
+        <v>1.031460380277583</v>
       </c>
       <c r="K6">
-        <v>1.037191513984223</v>
+        <v>1.036899648636247</v>
       </c>
       <c r="L6">
-        <v>1.034879384982453</v>
+        <v>1.035365104631582</v>
       </c>
       <c r="M6">
-        <v>1.045080941310922</v>
+        <v>1.045191328034662</v>
       </c>
       <c r="N6">
-        <v>1.012024657136498</v>
+        <v>1.014189954386155</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.044250922064977</v>
+        <v>1.044338285298844</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037382068953259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037185880584693</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020744159058881</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010633705748715</v>
+        <v>1.011303069540474</v>
       </c>
       <c r="D7">
-        <v>1.026227175301692</v>
+        <v>1.026191709712379</v>
       </c>
       <c r="E7">
-        <v>1.023804588112567</v>
+        <v>1.024527771405506</v>
       </c>
       <c r="F7">
-        <v>1.034236011057785</v>
+        <v>1.034559381726104</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.029763264237774</v>
+        <v>1.030416008678828</v>
       </c>
       <c r="K7">
-        <v>1.036016141121817</v>
+        <v>1.035981076897307</v>
       </c>
       <c r="L7">
-        <v>1.03362104923719</v>
+        <v>1.034336007928487</v>
       </c>
       <c r="M7">
-        <v>1.04393520795663</v>
+        <v>1.044254989952969</v>
       </c>
       <c r="N7">
-        <v>1.011496745781549</v>
+        <v>1.013886124119995</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043344155057612</v>
+        <v>1.043597240029511</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036555197061221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036541010136911</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02049460481518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002648968148179</v>
+        <v>1.004417177344225</v>
       </c>
       <c r="D8">
-        <v>1.020026544614393</v>
+        <v>1.021103195656921</v>
       </c>
       <c r="E8">
-        <v>1.017240365802208</v>
+        <v>1.018958969396952</v>
       </c>
       <c r="F8">
-        <v>1.028186986204818</v>
+        <v>1.029418715699714</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.024180607533874</v>
+        <v>1.025898018021246</v>
       </c>
       <c r="K8">
-        <v>1.030941908124311</v>
+        <v>1.032004701247231</v>
       </c>
       <c r="L8">
-        <v>1.028191761562457</v>
+        <v>1.029888110185611</v>
       </c>
       <c r="M8">
-        <v>1.038998217307474</v>
+        <v>1.040214408076501</v>
       </c>
       <c r="N8">
-        <v>1.009204105314251</v>
+        <v>1.012500888613374</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039436862781345</v>
+        <v>1.040399397009827</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.032971883487393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.033734458063574</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019397785726722</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987694028288441</v>
+        <v>0.9915907875725775</v>
       </c>
       <c r="D9">
-        <v>1.00845481052112</v>
+        <v>1.011657098805245</v>
       </c>
       <c r="E9">
-        <v>1.00498198114063</v>
+        <v>1.008620883195499</v>
       </c>
       <c r="F9">
-        <v>1.016926157434801</v>
+        <v>1.019904909058696</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.013688953508096</v>
+        <v>1.017444031952763</v>
       </c>
       <c r="K9">
-        <v>1.021412187669295</v>
+        <v>1.02456383710394</v>
       </c>
       <c r="L9">
-        <v>1.017994743015756</v>
+        <v>1.021575624054857</v>
       </c>
       <c r="M9">
-        <v>1.029750461386046</v>
+        <v>1.032683091687882</v>
       </c>
       <c r="N9">
-        <v>1.004852952365977</v>
+        <v>1.009789717360877</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03211783555939</v>
+        <v>1.034438839382443</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026230343427566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028469718684248</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017298137781153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9773083622296073</v>
+        <v>0.982811869234736</v>
       </c>
       <c r="D10">
-        <v>1.000498768724272</v>
+        <v>1.005273440290499</v>
       </c>
       <c r="E10">
-        <v>0.9965466778831883</v>
+        <v>1.001629852256293</v>
       </c>
       <c r="F10">
-        <v>1.009226369214288</v>
+        <v>1.013510155470343</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.019999999999999</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.006452134708446</v>
+        <v>1.011724431039063</v>
       </c>
       <c r="K10">
-        <v>1.014859023583436</v>
+        <v>1.019548129473229</v>
       </c>
       <c r="L10">
-        <v>1.01097856431779</v>
+        <v>1.015969741440357</v>
       </c>
       <c r="M10">
-        <v>1.023431013220876</v>
+        <v>1.02763969038974</v>
       </c>
       <c r="N10">
-        <v>1.001856899416957</v>
+        <v>1.008084190175833</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027168493103032</v>
+        <v>1.030499221388639</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.021613758166663</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.024941945014117</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015888053135769</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9744236534964839</v>
+        <v>0.9802806755834441</v>
       </c>
       <c r="D11">
-        <v>0.9985809874650757</v>
+        <v>1.003711576207974</v>
       </c>
       <c r="E11">
-        <v>0.9945589415532327</v>
+        <v>0.9999459138382274</v>
       </c>
       <c r="F11">
-        <v>1.007619892727198</v>
+        <v>1.012187080765137</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.00490055264976</v>
+        <v>1.010497450497221</v>
       </c>
       <c r="K11">
-        <v>1.013529713990868</v>
+        <v>1.018563835440375</v>
       </c>
       <c r="L11">
-        <v>1.009584202950246</v>
+        <v>1.014868850217076</v>
       </c>
       <c r="M11">
-        <v>1.022399525625845</v>
+        <v>1.026882768993789</v>
       </c>
       <c r="N11">
-        <v>1.001420583428291</v>
+        <v>1.008074876780847</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.026794348190843</v>
+        <v>1.030340542639098</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.020707317128024</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024282561307664</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015759391197209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9740413092091363</v>
+        <v>0.9798355067249832</v>
       </c>
       <c r="D12">
-        <v>0.9985011264044046</v>
+        <v>1.003585693387975</v>
       </c>
       <c r="E12">
-        <v>0.9945193482011088</v>
+        <v>0.9998360712960671</v>
       </c>
       <c r="F12">
-        <v>1.007726825697596</v>
+        <v>1.012242298204819</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.004986418999851</v>
+        <v>1.01051847901269</v>
       </c>
       <c r="K12">
-        <v>1.013657098915572</v>
+        <v>1.018644518091211</v>
       </c>
       <c r="L12">
-        <v>1.00975230753126</v>
+        <v>1.014966412595127</v>
       </c>
       <c r="M12">
-        <v>1.022707474166247</v>
+        <v>1.027138654359175</v>
       </c>
       <c r="N12">
-        <v>1.001629282330599</v>
+        <v>1.008302312102309</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.027368231933691</v>
+        <v>1.030872034039912</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.020797385694474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024339606879802</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015896010200002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9756119961129358</v>
+        <v>0.9809870923292279</v>
       </c>
       <c r="D13">
-        <v>0.9998816578925356</v>
+        <v>1.004579581418851</v>
       </c>
       <c r="E13">
-        <v>0.9960236991026767</v>
+        <v>1.00094804460822</v>
       </c>
       <c r="F13">
-        <v>1.00920935600269</v>
+        <v>1.01338686138236</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>1.006389058997722</v>
+        <v>1.011522839004936</v>
       </c>
       <c r="K13">
-        <v>1.01496708396784</v>
+        <v>1.01957582571833</v>
       </c>
       <c r="L13">
-        <v>1.011183185862574</v>
+        <v>1.016013131144832</v>
       </c>
       <c r="M13">
-        <v>1.0241187721243</v>
+        <v>1.028218818674995</v>
       </c>
       <c r="N13">
-        <v>1.002374182565338</v>
+        <v>1.008699248905034</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.028763508348487</v>
+        <v>1.032004651041132</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.02172108225281</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024995302884971</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016254771811554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9775913011308055</v>
+        <v>0.9825175828975076</v>
       </c>
       <c r="D14">
-        <v>1.001507196579062</v>
+        <v>1.005785323653105</v>
       </c>
       <c r="E14">
-        <v>0.9977718024195895</v>
+        <v>1.002281386180976</v>
       </c>
       <c r="F14">
-        <v>1.010866846590925</v>
+        <v>1.014682960226559</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>1.007963998209893</v>
+        <v>1.012672903065488</v>
       </c>
       <c r="K14">
-        <v>1.016417676872228</v>
+        <v>1.020615782598604</v>
       </c>
       <c r="L14">
-        <v>1.012752886179273</v>
+        <v>1.01717731933133</v>
       </c>
       <c r="M14">
-        <v>1.025603403160152</v>
+        <v>1.029349802690188</v>
       </c>
       <c r="N14">
-        <v>1.003137386040742</v>
+        <v>1.009056767768608</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.030111752155468</v>
+        <v>1.033072929507679</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022748183892529</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025732173541775</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.016608284130973</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9785111038879256</v>
+        <v>0.9832513052621743</v>
       </c>
       <c r="D15">
-        <v>1.002236764060219</v>
+        <v>1.006338752054808</v>
       </c>
       <c r="E15">
-        <v>0.9985485603911798</v>
+        <v>1.00288797725323</v>
       </c>
       <c r="F15">
-        <v>1.01158924889555</v>
+        <v>1.015255508498895</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
       </c>
       <c r="I15">
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>1.008649312943246</v>
+        <v>1.01318241967504</v>
       </c>
       <c r="K15">
-        <v>1.017044927431102</v>
+        <v>1.0210708418348</v>
       </c>
       <c r="L15">
-        <v>1.013425820589666</v>
+        <v>1.017684009308422</v>
       </c>
       <c r="M15">
-        <v>1.026225136797483</v>
+        <v>1.029824988483407</v>
       </c>
       <c r="N15">
-        <v>1.003446664224675</v>
+        <v>1.009189685669676</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.030640954977729</v>
+        <v>1.033486225346921</v>
       </c>
       <c r="Q15">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023197653163277</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026060437941266</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.016749015072152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9826053876399444</v>
+        <v>0.9866535989160314</v>
       </c>
       <c r="D16">
-        <v>1.00533837988482</v>
+        <v>1.008769931428377</v>
       </c>
       <c r="E16">
-        <v>1.001825977621457</v>
+        <v>1.005543417086401</v>
       </c>
       <c r="F16">
-        <v>1.014580921828123</v>
+        <v>1.017688507203493</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.011447501172149</v>
+        <v>1.015328418188922</v>
       </c>
       <c r="K16">
-        <v>1.019575516072524</v>
+        <v>1.022946409092462</v>
       </c>
       <c r="L16">
-        <v>1.016125760499863</v>
+        <v>1.019776913802583</v>
       </c>
       <c r="M16">
-        <v>1.028655891239468</v>
+        <v>1.031709807370868</v>
       </c>
       <c r="N16">
-        <v>1.004570107548523</v>
+        <v>1.009628960325859</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032523247357956</v>
+        <v>1.034937090333909</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024990122874158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027390039045725</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01724517320194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.984711735813544</v>
+        <v>0.9884795467278825</v>
       </c>
       <c r="D17">
-        <v>1.006869435903367</v>
+        <v>1.010019448677646</v>
       </c>
       <c r="E17">
-        <v>1.003427477132317</v>
+        <v>1.006899060937307</v>
       </c>
       <c r="F17">
-        <v>1.016006549102907</v>
+        <v>1.018886475170324</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.012770367280077</v>
+        <v>1.016387752769006</v>
       </c>
       <c r="K17">
-        <v>1.020758081628356</v>
+        <v>1.023854052111938</v>
       </c>
       <c r="L17">
-        <v>1.017375675966739</v>
+        <v>1.020787196372227</v>
       </c>
       <c r="M17">
-        <v>1.029739627870511</v>
+        <v>1.032571265996401</v>
       </c>
       <c r="N17">
-        <v>1.00503258881158</v>
+        <v>1.009813107456546</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033250039739395</v>
+        <v>1.035488418168123</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.025828879325979</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.028034641888395</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017445986805363</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9852714543018359</v>
+        <v>0.98906883174686</v>
       </c>
       <c r="D18">
-        <v>1.007146098755711</v>
+        <v>1.010309137011253</v>
       </c>
       <c r="E18">
-        <v>1.00369117218728</v>
+        <v>1.00720063523509</v>
       </c>
       <c r="F18">
-        <v>1.016159097068521</v>
+        <v>1.019061662239717</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.01290267288735</v>
+        <v>1.016551262526609</v>
       </c>
       <c r="K18">
-        <v>1.02084261086435</v>
+        <v>1.023952262780279</v>
       </c>
       <c r="L18">
-        <v>1.017446493924115</v>
+        <v>1.020896223200568</v>
       </c>
       <c r="M18">
-        <v>1.029704613506642</v>
+        <v>1.032559283027827</v>
       </c>
       <c r="N18">
-        <v>1.004948307934634</v>
+        <v>1.009733668373392</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032983036773049</v>
+        <v>1.035240097000312</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025876845268423</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028091174633304</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017387228947626</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9845523658128843</v>
+        <v>0.9886124025515322</v>
       </c>
       <c r="D19">
-        <v>1.006401200712903</v>
+        <v>1.009802473064856</v>
       </c>
       <c r="E19">
-        <v>1.00285773343291</v>
+        <v>1.006617433312934</v>
       </c>
       <c r="F19">
-        <v>1.015254395437464</v>
+        <v>1.018369022962968</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.012073818741195</v>
+        <v>1.015975443275109</v>
       </c>
       <c r="K19">
-        <v>1.020046392796015</v>
+        <v>1.023390473815776</v>
       </c>
       <c r="L19">
-        <v>1.016563040674446</v>
+        <v>1.02025897467132</v>
       </c>
       <c r="M19">
-        <v>1.028751752519808</v>
+        <v>1.031815156293553</v>
       </c>
       <c r="N19">
-        <v>1.004443042967039</v>
+        <v>1.009434513808931</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03190139925735</v>
+        <v>1.034324298879603</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025320369156769</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.02770106874118</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017128177120833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9801427817118663</v>
+        <v>0.9851483206085841</v>
       </c>
       <c r="D20">
-        <v>1.002695431742696</v>
+        <v>1.006991343320898</v>
       </c>
       <c r="E20">
-        <v>0.9988627419917621</v>
+        <v>1.003495400138339</v>
       </c>
       <c r="F20">
-        <v>1.011337501600863</v>
+        <v>1.015218784018387</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.008461224458717</v>
+        <v>1.013264002908214</v>
       </c>
       <c r="K20">
-        <v>1.016691050240793</v>
+        <v>1.020912362373187</v>
       </c>
       <c r="L20">
-        <v>1.012925618230827</v>
+        <v>1.017477064348555</v>
       </c>
       <c r="M20">
-        <v>1.025183881787475</v>
+        <v>1.028999205926201</v>
       </c>
       <c r="N20">
-        <v>1.002706252455232</v>
+        <v>1.008480500401315</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.028545029239569</v>
+        <v>1.031564494209023</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.02295196014742</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.025953321180128</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016279131481193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9719252603483022</v>
+        <v>0.9784787863155756</v>
       </c>
       <c r="D21">
-        <v>0.9963613150321402</v>
+        <v>1.002136830310707</v>
       </c>
       <c r="E21">
-        <v>0.9921371243355573</v>
+        <v>0.9981768120374164</v>
       </c>
       <c r="F21">
-        <v>1.005165157654392</v>
+        <v>1.010296754033001</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.002645547567764</v>
+        <v>1.008904695899911</v>
       </c>
       <c r="K21">
-        <v>1.01141195288727</v>
+        <v>1.017077832557882</v>
       </c>
       <c r="L21">
-        <v>1.007269008351846</v>
+        <v>1.013192807793695</v>
       </c>
       <c r="M21">
-        <v>1.02004933085974</v>
+        <v>1.025085642260477</v>
       </c>
       <c r="N21">
-        <v>1.000254944644366</v>
+        <v>1.007523959749637</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.024439907952913</v>
+        <v>1.028425890596195</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.019222648593419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.023245771840511</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.015204150104219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9666436851191462</v>
+        <v>0.9742117271727282</v>
       </c>
       <c r="D22">
-        <v>0.9923072354899241</v>
+        <v>0.9990480498068977</v>
       </c>
       <c r="E22">
-        <v>0.987838421962757</v>
+        <v>0.9947999089131548</v>
       </c>
       <c r="F22">
-        <v>1.001240439384252</v>
+        <v>1.007189814698847</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9989210885626615</v>
+        <v>1.006127056309223</v>
       </c>
       <c r="K22">
-        <v>1.008032643603555</v>
+        <v>1.014638388633984</v>
       </c>
       <c r="L22">
-        <v>1.003654714219205</v>
+        <v>1.010475089308515</v>
       </c>
       <c r="M22">
-        <v>1.016787362914708</v>
+        <v>1.022620172960198</v>
       </c>
       <c r="N22">
-        <v>0.9986865367748585</v>
+        <v>1.006913524506578</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02185821486205</v>
+        <v>1.026474600763107</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.016819452358491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021505923960002</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.014522596573526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9694139783285404</v>
+        <v>0.9764257207454903</v>
       </c>
       <c r="D23">
-        <v>0.9944225644736739</v>
+        <v>1.00063552273106</v>
       </c>
       <c r="E23">
-        <v>0.9900865424398987</v>
+        <v>0.9965408013804934</v>
       </c>
       <c r="F23">
-        <v>1.00329367648387</v>
+        <v>1.008794607610608</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.000863167204332</v>
+        <v>1.007550375254262</v>
       </c>
       <c r="K23">
-        <v>1.009789932727269</v>
+        <v>1.015881880440532</v>
       </c>
       <c r="L23">
-        <v>1.005539546672185</v>
+        <v>1.011866690095764</v>
       </c>
       <c r="M23">
-        <v>1.018488860280176</v>
+        <v>1.023885008709274</v>
       </c>
       <c r="N23">
-        <v>0.999498958696371</v>
+        <v>1.007171782839623</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.023204870647157</v>
+        <v>1.027475652710542</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018052123707709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022374384887061</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.014860671904543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9800480084713826</v>
+        <v>0.9850911096162011</v>
       </c>
       <c r="D24">
-        <v>1.002581954447639</v>
+        <v>1.006911608277124</v>
       </c>
       <c r="E24">
-        <v>0.9987455838495045</v>
+        <v>1.003414025408673</v>
       </c>
       <c r="F24">
-        <v>1.011210931968363</v>
+        <v>1.015122631347017</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.0083363322029</v>
+        <v>1.013175394871723</v>
       </c>
       <c r="K24">
-        <v>1.016563879283765</v>
+        <v>1.02081842583938</v>
       </c>
       <c r="L24">
-        <v>1.01279476431078</v>
+        <v>1.017381451026043</v>
       </c>
       <c r="M24">
-        <v>1.025043990455161</v>
+        <v>1.028889281185922</v>
       </c>
       <c r="N24">
-        <v>1.00262830526657</v>
+        <v>1.008430743429935</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.028392925419585</v>
+        <v>1.031436260790172</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022834152610357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025856431683055</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016234243592744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9917353681860259</v>
+        <v>0.995018779684319</v>
       </c>
       <c r="D25">
-        <v>1.011590803280342</v>
+        <v>1.014188673320567</v>
       </c>
       <c r="E25">
-        <v>1.008297242813549</v>
+        <v>1.011382503110966</v>
       </c>
       <c r="F25">
-        <v>1.019965855424145</v>
+        <v>1.022443924116954</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.016544107632637</v>
+        <v>1.019714952550909</v>
       </c>
       <c r="K25">
-        <v>1.024011812642095</v>
+        <v>1.026570650113037</v>
       </c>
       <c r="L25">
-        <v>1.020768105900114</v>
+        <v>1.023806653206567</v>
       </c>
       <c r="M25">
-        <v>1.032261936508141</v>
+        <v>1.03470353869652</v>
       </c>
       <c r="N25">
-        <v>1.006049494042768</v>
+        <v>1.010492635727106</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.034105520382372</v>
+        <v>1.036037899509141</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028097456418623</v>
+        <v>1.029920378552755</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017872636633106</v>
       </c>
     </row>
   </sheetData>
